--- a/VW_PSA_BPU_BPLV_XREF-JA.xlsx
+++ b/VW_PSA_BPU_BPLV_XREF-JA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A162394\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Data\Aetna\_Tasks\PSA\Doc\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{054FF65D-4A7C-4509-BC59-F89F8FCA85B0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49803126-CA90-4777-AFE1-44B89E521BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3DD21D0D-9625-43E7-A916-38D0329A8D14}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DD21D0D-9625-43E7-A916-38D0329A8D14}"/>
   </bookViews>
   <sheets>
     <sheet name="VW_BPU_BPLV_XREF" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
@@ -39,18 +38,18 @@
     <definedName name="AA.Reports.Available" hidden="1">#REF!</definedName>
     <definedName name="APLCPhase">#REF!</definedName>
     <definedName name="AppId">#REF!</definedName>
-    <definedName name="APPL">'[2]2011 Baseline funding'!$G$4:$G$115</definedName>
+    <definedName name="APPL">'[1]2011 Baseline funding'!$G$4:$G$115</definedName>
     <definedName name="AppName">#REF!</definedName>
-    <definedName name="Calendars">'[3]APLC Phase'!$A$49:$A$60</definedName>
+    <definedName name="Calendars">'[2]APLC Phase'!$A$49:$A$60</definedName>
     <definedName name="Data.Dump" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
-    <definedName name="DATA_01" hidden="1">'[4]Sales Seasonality by Month'!$B$4</definedName>
-    <definedName name="DATA_02" hidden="1">'[4]Sales Seasonality by Month'!$B$9</definedName>
-    <definedName name="DATA_03" hidden="1">'[4]Sales Seasonality by Month'!$C$9:$C$20</definedName>
-    <definedName name="DATA_04" hidden="1">'[4]Sales Seasonality by Month'!$F$9:$F$20</definedName>
+    <definedName name="DATA_01" hidden="1">'[3]Sales Seasonality by Month'!$B$4</definedName>
+    <definedName name="DATA_02" hidden="1">'[3]Sales Seasonality by Month'!$B$9</definedName>
+    <definedName name="DATA_03" hidden="1">'[3]Sales Seasonality by Month'!$C$9:$C$20</definedName>
+    <definedName name="DATA_04" hidden="1">'[3]Sales Seasonality by Month'!$F$9:$F$20</definedName>
     <definedName name="Database.File" hidden="1">#REF!</definedName>
-    <definedName name="Domain">[2]Validations!$B$10:$B$33</definedName>
+    <definedName name="Domain">[1]Validations!$B$10:$B$33</definedName>
     <definedName name="File.Type" hidden="1">#REF!</definedName>
-    <definedName name="Holidays">[5]Holidays!$A$1:$A$9</definedName>
+    <definedName name="Holidays">[4]Holidays!$A$1:$A$9</definedName>
     <definedName name="HTML_CodePage" hidden="1">1252</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
@@ -67,19 +66,19 @@
     <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
     <definedName name="ImpDate">#REF!</definedName>
     <definedName name="Itest">#REF!</definedName>
-    <definedName name="LABOR_TAX" hidden="1">'[6]Service Invoice'!$G$15</definedName>
+    <definedName name="LABOR_TAX" hidden="1">'[5]Service Invoice'!$G$15</definedName>
     <definedName name="Leads">#REF!</definedName>
-    <definedName name="lkjh">[7]LISTS!$A$3:$A$15</definedName>
+    <definedName name="lkjh">[6]LISTS!$A$3:$A$15</definedName>
     <definedName name="old" hidden="1">#REF!</definedName>
     <definedName name="One">#REF!</definedName>
     <definedName name="Ownership" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
-    <definedName name="PARTS_TAX" hidden="1">'[6]Service Invoice'!$D$15</definedName>
+    <definedName name="PARTS_TAX" hidden="1">'[5]Service Invoice'!$D$15</definedName>
     <definedName name="Path">#REF!</definedName>
     <definedName name="ProjectDesc">#REF!</definedName>
-    <definedName name="ProjectName">'[2]2011 Project funding'!$P:$P</definedName>
+    <definedName name="ProjectName">'[1]2011 Project funding'!$P:$P</definedName>
     <definedName name="ProjectNum">#REF!</definedName>
     <definedName name="ProjGrp">#REF!</definedName>
-    <definedName name="Region">[8]LISTS!$A$3:$A$15</definedName>
+    <definedName name="Region">[7]LISTS!$A$3:$A$15</definedName>
     <definedName name="Release_month">#REF!</definedName>
     <definedName name="Release_type">#REF!</definedName>
     <definedName name="Release_Year">#REF!</definedName>
@@ -90,11 +89,11 @@
     <definedName name="SRLeads">#REF!</definedName>
     <definedName name="SubjectArea">#REF!</definedName>
     <definedName name="test">#REF!</definedName>
-    <definedName name="trt">[7]LISTS!$A$3:$A$15</definedName>
+    <definedName name="trt">[6]LISTS!$A$3:$A$15</definedName>
     <definedName name="two">#REF!</definedName>
     <definedName name="TYPE">#REF!</definedName>
-    <definedName name="type1">[9]LISTS!$A$3:$A$15</definedName>
-    <definedName name="type2">[9]LISTS!$B$4:$B$6</definedName>
+    <definedName name="type1">[8]LISTS!$A$3:$A$15</definedName>
+    <definedName name="type2">[8]LISTS!$B$4:$B$6</definedName>
     <definedName name="Weeks">#REF!</definedName>
     <definedName name="Zachversion" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
   </definedNames>
@@ -116,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
   <si>
     <t>B1:P1:LV1</t>
   </si>
@@ -160,9 +159,6 @@
     <t>Apr'21</t>
   </si>
   <si>
-    <t>May'21</t>
-  </si>
-  <si>
     <t>Apr'20</t>
   </si>
   <si>
@@ -238,15 +234,6 @@
     <t>5-a</t>
   </si>
   <si>
-    <t>Raise an error!</t>
-  </si>
-  <si>
-    <t>Raise an error</t>
-  </si>
-  <si>
-    <t>Put a warning</t>
-  </si>
-  <si>
     <t>Adding new BPU-BPLV</t>
   </si>
   <si>
@@ -274,9 +261,6 @@
     <t>3-c</t>
   </si>
   <si>
-    <t>Ignore, put a warning</t>
-  </si>
-  <si>
     <t>4-b</t>
   </si>
   <si>
@@ -296,23 +280,6 @@
   </si>
   <si>
     <t>Changing active Line Value</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ignore, put a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>warning</t>
-    </r>
   </si>
   <si>
     <t>Changing future BPU-BPLV</t>
@@ -414,9 +381,6 @@
     <t xml:space="preserve">    no more than 1 month gap</t>
   </si>
   <si>
-    <t>JK</t>
-  </si>
-  <si>
     <t>JA</t>
   </si>
   <si>
@@ -470,32 +434,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">-this is what </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Oleg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is proposing now. The difference is in the Start Date</t>
-    </r>
-  </si>
-  <si>
     <t>3B</t>
   </si>
   <si>
@@ -551,16 +489,53 @@
   </si>
   <si>
     <t>6A</t>
+  </si>
+  <si>
+    <t>OK but check with PERS and with Chitra  that it is OK with them as well</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>- warning</t>
+  </si>
+  <si>
+    <t>Supplier Start Date should be 7/1</t>
+  </si>
+  <si>
+    <t>- ignore</t>
+  </si>
+  <si>
+    <t>- ERROR!</t>
+  </si>
+  <si>
+    <t>2-a</t>
+  </si>
+  <si>
+    <t>2-b</t>
+  </si>
+  <si>
+    <t>. . .</t>
+  </si>
+  <si>
+    <t>- we got this line back on 6/1/2020</t>
+  </si>
+  <si>
+    <t>So, the Supplier Start Date is 06/01/2020</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +630,14 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -746,7 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -791,7 +774,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,9 +782,6 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -842,13 +821,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -869,7 +846,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -918,19 +894,136 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -940,12 +1033,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,9 +1042,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -967,80 +1051,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,15 +1084,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>419102</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1087,8 +1107,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2876550" y="3724275"/>
-          <a:ext cx="1" cy="371475"/>
+          <a:off x="2319618" y="10593481"/>
+          <a:ext cx="4484" cy="354666"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1121,13 +1141,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1177,13 +1197,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>235324</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1233,13 +1253,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1289,13 +1309,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>537884</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1345,13 +1365,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>53790</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>230281</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1399,15 +1419,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1423,8 +1443,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4179794" y="12763500"/>
-          <a:ext cx="2510118" cy="381000"/>
+          <a:off x="4560794" y="12584206"/>
+          <a:ext cx="2129118" cy="369794"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1457,13 +1477,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>441512</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>127187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>441513</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>117662</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1513,13 +1533,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>762002</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>84605</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1569,13 +1589,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>772086</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>61633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>772088</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>90208</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1625,13 +1645,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>705970</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>705972</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>118223</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1679,16 +1699,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>121025</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>96931</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>434790</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>297516</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>106456</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>577663</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1703,7 +1723,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4973172" y="17779813"/>
+          <a:off x="4648202" y="17768607"/>
           <a:ext cx="2619373" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1737,35 +1757,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="2020 - AHM + Infra"/>
-      <sheetName val="AHM only"/>
-      <sheetName val="2020 INFRA "/>
-      <sheetName val=" AH - HC - AHM"/>
-      <sheetName val="2020"/>
-      <sheetName val="Template"/>
-      <sheetName val="2020 - AHM"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3381,7 +3372,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3475,7 +3466,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3595,7 +3586,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3660,7 +3651,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3674,6 +3665,87 @@
           </cell>
           <cell r="G15">
             <v>9.5000000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="One shots"/>
+      <sheetName val="LISTS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>TSX2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>TSX3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>TSXA</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>TSXB</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>TSXC</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>TSXD</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>TSXE</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>TSXF</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>TSXG</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>TSXH</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>TSXI</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>TSXJ</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>TSXK</v>
           </cell>
         </row>
       </sheetData>
@@ -3764,87 +3836,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="One shots"/>
-      <sheetName val="LISTS"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>TSX2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>TSX3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>TSXA</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>TSXB</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>TSXC</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>TSXD</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>TSXE</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>TSXF</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>TSXG</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>TSXH</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>TSXI</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>TSXJ</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>TSXK</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4231,16 +4222,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71C91DF-8E77-4850-A4A1-31870D4AB3AC}">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AB110"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X58" sqref="X58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="43"/>
+    <col min="1" max="1" width="9.140625" style="41"/>
     <col min="2" max="2" width="9.42578125" style="10" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="10" customWidth="1"/>
@@ -4254,133 +4245,136 @@
     <col min="12" max="12" width="9.140625" style="10"/>
     <col min="13" max="13" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9.140625" style="10"/>
-    <col min="16" max="16" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="36" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="36"/>
-    <col min="19" max="20" width="9.140625" style="84"/>
-    <col min="21" max="21" width="8.28515625" style="10" customWidth="1"/>
-    <col min="22" max="25" width="8.28515625" style="36" customWidth="1"/>
-    <col min="26" max="27" width="8.28515625" style="1" customWidth="1"/>
-    <col min="28" max="30" width="8.28515625" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="118" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="34" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="34"/>
+    <col min="20" max="20" width="9.140625" style="79"/>
+    <col min="21" max="21" width="46.28515625" style="79" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="10" customWidth="1"/>
+    <col min="23" max="26" width="8.28515625" style="34" customWidth="1"/>
+    <col min="27" max="28" width="8.28515625" style="1" customWidth="1"/>
+    <col min="29" max="31" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="127"/>
-      <c r="F1" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="45" t="s">
+      <c r="E1" s="135"/>
+      <c r="F1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="2"/>
+      <c r="P1" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
       <c r="AA1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
+      <c r="AB1" s="2"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="126" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
       <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C3" s="18">
         <v>43952</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="26"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="18"/>
       <c r="H3" s="5">
         <v>44104</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="2"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
       <c r="AA3" s="2"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D4" s="98"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="48"/>
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D4" s="126"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="18">
         <v>44044</v>
       </c>
@@ -4392,47 +4386,49 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="5">
-        <v>44347</v>
-      </c>
-      <c r="R4" s="46"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="2"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="115">
+        <v>2958465</v>
+      </c>
+      <c r="S4" s="44"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
       <c r="AA4" s="2"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D5" s="98"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="2"/>
+      <c r="AB4" s="2"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D5" s="126"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="126" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
       <c r="AA5" s="2"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5" s="2"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C6" s="18">
         <v>43952</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="26"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="18"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -4442,79 +4438,85 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="5">
-        <v>44347</v>
-      </c>
-      <c r="Q6" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="46"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="2"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="115">
+        <v>2958465</v>
+      </c>
+      <c r="R6" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" s="44"/>
+      <c r="U6" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
       <c r="AA6" s="2"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="2"/>
+      <c r="AB6" s="2"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D7" s="126"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
       <c r="AA7" s="2"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="63">
+      <c r="AB7" s="2"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="59">
         <v>2</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="3"/>
+      <c r="B8" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
       <c r="AA8" s="3"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB8" s="3"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="132"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -4526,35 +4528,40 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="47"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="36"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" s="45"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="34"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="37"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="111" t="s">
+        <v>93</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="26"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="4"/>
@@ -4565,32 +4572,37 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Q11" s="115"/>
+      <c r="R11" s="110" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C12" s="22"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="37"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="37"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -4601,75 +4613,78 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="2"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="110" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D14" s="126"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
       <c r="AA14" s="2"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D15" s="98"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="2"/>
+      <c r="AB14" s="2"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D15" s="126"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
       <c r="AA15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+      <c r="AB15" s="2"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
         <v>3</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="50"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D16" s="126"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="47"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="38">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D17" s="126"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="36">
         <v>44044</v>
       </c>
       <c r="H17" s="12"/>
@@ -4680,82 +4695,87 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="5">
-        <v>44347</v>
-      </c>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="3"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="115">
+        <v>2958465</v>
+      </c>
+      <c r="U17" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
       <c r="AA17" s="3"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="39">
+      <c r="AB17" s="3"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D18" s="126"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37">
         <v>44044</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="132" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
+      <c r="J18" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="6">
-        <v>44347</v>
-      </c>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="3"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="119">
+        <v>2958465</v>
+      </c>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
       <c r="AA18" s="3"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="50"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="3"/>
+      <c r="AB18" s="3"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D19" s="126"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="47"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D20" s="98"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="50"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D20" s="126"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="47"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
       <c r="AA20" s="3"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>49</v>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="50"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
       <c r="AA21" s="3"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C22" s="34"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="112">
+      <c r="AB21" s="3"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C22" s="32"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="129">
         <v>44007</v>
       </c>
-      <c r="F22" s="112"/>
+      <c r="F22" s="129"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -4765,85 +4785,92 @@
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="5">
-        <v>44347</v>
-      </c>
-      <c r="Q22" s="49"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="3"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="115">
+        <v>2958465</v>
+      </c>
+      <c r="R22" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="U22" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
       <c r="AA22" s="3"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E23" s="128">
+      <c r="AB22" s="3"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E23" s="137">
         <v>44007</v>
       </c>
-      <c r="F23" s="128"/>
+      <c r="F23" s="137"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="132" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
+      <c r="J23" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="127"/>
+      <c r="L23" s="127"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="6">
-        <v>44347</v>
-      </c>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="3"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="119">
+        <v>2958465</v>
+      </c>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
       <c r="AA23" s="3"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D24" s="98"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="50"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="3"/>
+      <c r="AB23" s="3"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D24" s="126"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="47"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
       <c r="AA24" s="3"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D25" s="98"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="50"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="3"/>
+      <c r="AB24" s="3"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D25" s="126"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="47"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
       <c r="AA25" s="3"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="50"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="3"/>
+      <c r="AB25" s="3"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="134" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="47"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
       <c r="AA26" s="3"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26" s="3"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C27" s="18">
         <v>43952</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="51"/>
+      <c r="F27" s="48"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -4853,22 +4880,30 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="5">
-        <v>44347</v>
-      </c>
-      <c r="Q27" s="95"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="3"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="115">
+        <v>2958465</v>
+      </c>
+      <c r="R27" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="U27" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
       <c r="AA27" s="3"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="91">
+      <c r="AB27" s="3"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="78"/>
+      <c r="C28" s="96">
+        <v>43952</v>
+      </c>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="86">
         <v>44013</v>
       </c>
       <c r="G28" s="8"/>
@@ -4880,1493 +4915,1547 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="W28" s="84"/>
-      <c r="X28" s="84"/>
-      <c r="Y28" s="84"/>
-      <c r="Z28" s="3"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="119">
+        <v>2958465</v>
+      </c>
+      <c r="R28" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
       <c r="AA28" s="3"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="129">
+      <c r="AB28" s="3"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D29" s="126"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="47"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D30" s="126"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="47"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="126"/>
+      <c r="E31" s="132"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B32" s="18">
+        <v>43922</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="141">
+        <v>44012</v>
+      </c>
+      <c r="E32" s="142"/>
+      <c r="F32" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="U32" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D33" s="126"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="47"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="41">
+        <v>4</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="126"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="47"/>
+      <c r="V34" s="34"/>
+      <c r="X34" s="77"/>
+      <c r="Y34" s="77"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C35" s="38">
+        <v>43952</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="9">
+        <v>44104</v>
+      </c>
+      <c r="S35" s="80"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="81"/>
+      <c r="W35" s="81"/>
+      <c r="X35" s="81"/>
+      <c r="Y35" s="81"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C36" s="18">
+        <v>43952</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="115">
+        <v>2958465</v>
+      </c>
+      <c r="S36" s="22"/>
+      <c r="T36" s="84"/>
+      <c r="U36" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="V36" s="81"/>
+      <c r="W36" s="81"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C37" s="30">
+        <v>43952</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
+      <c r="O37" s="136"/>
+      <c r="P37" s="98"/>
+      <c r="Q37" s="119">
+        <v>2958465</v>
+      </c>
+      <c r="T37" s="84"/>
+      <c r="U37" s="84"/>
+      <c r="V37" s="81"/>
+      <c r="W37" s="81"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="81"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D38" s="126"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="47"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D39" s="126"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="47"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B40" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="38">
+        <v>43952</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="120">
+        <v>2958465</v>
+      </c>
+      <c r="U41" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C42" s="22"/>
+      <c r="D42" s="129">
+        <v>43983</v>
+      </c>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5">
+        <v>44196</v>
+      </c>
+      <c r="L42" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="121"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C43" s="30">
+        <v>43952</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6">
+        <v>44196</v>
+      </c>
+      <c r="L43" s="22"/>
+      <c r="M43" s="133"/>
+      <c r="N43" s="133"/>
+      <c r="O43" s="133"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="121"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D44" s="126"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="47"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="45"/>
+      <c r="Z44" s="45"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D45" s="126"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="47"/>
+      <c r="X45" s="45"/>
+      <c r="Y45" s="45"/>
+      <c r="Z45" s="45"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="31"/>
+      <c r="D46" s="130">
+        <v>43983</v>
+      </c>
+      <c r="E46" s="130"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="9">
+        <v>44104</v>
+      </c>
+      <c r="U46" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="45"/>
+      <c r="Z46" s="45"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C47" s="18">
+        <v>43952</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5">
+        <v>44286</v>
+      </c>
+      <c r="O47" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="P47" s="99"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="45"/>
+      <c r="Z47" s="45"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C48" s="96">
+        <v>43952</v>
+      </c>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="6">
+        <v>44286</v>
+      </c>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D49" s="126"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="47"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="45"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D50" s="126"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="47"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="45"/>
+      <c r="Z50" s="45"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="95">
+        <v>43952</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9">
+        <v>44255</v>
+      </c>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="U51" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="W51" s="51"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="45"/>
+      <c r="Z51" s="45"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C52" s="4"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="94">
+        <v>44075</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="115">
+        <v>2958465</v>
+      </c>
+      <c r="R52" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="W52" s="51"/>
+      <c r="X52" s="45"/>
+      <c r="Y52" s="45"/>
+      <c r="Z52" s="45"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C53" s="73">
+        <v>43952</v>
+      </c>
+      <c r="D53" s="75"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="119">
+        <v>2958465</v>
+      </c>
+      <c r="W53" s="52"/>
+      <c r="X53" s="45"/>
+      <c r="Y53" s="45"/>
+      <c r="Z53" s="45"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D54" s="144"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="123"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="V54" s="103"/>
+      <c r="W54" s="104"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D55" s="126"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="47"/>
+      <c r="V55" s="103"/>
+      <c r="W55" s="105"/>
+      <c r="X55" s="45"/>
+      <c r="Y55" s="45"/>
+      <c r="Z55" s="45"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A56" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="95">
+        <v>43952</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="72">
+        <v>44196</v>
+      </c>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="121"/>
+      <c r="U56" s="160" t="s">
+        <v>98</v>
+      </c>
+      <c r="V56" s="103"/>
+      <c r="W56" s="106"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B57" s="18">
+        <v>43922</v>
+      </c>
+      <c r="C57" s="5">
+        <v>43982</v>
+      </c>
+      <c r="D57" s="149"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="47"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="R57" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="S57" s="51"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="107"/>
+      <c r="X57" s="45"/>
+      <c r="Y57" s="45"/>
+      <c r="Z57" s="45"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+    </row>
+    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="87"/>
+      <c r="D58" s="67">
         <v>44007</v>
       </c>
-      <c r="F29" s="129"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D30" s="98"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="50"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D31" s="98"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="50"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
+      <c r="E58" s="109"/>
+      <c r="F58" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="N58" s="51"/>
+      <c r="W58" s="108"/>
+      <c r="X58" s="45"/>
+      <c r="Y58" s="45"/>
+      <c r="Z58" s="45"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+    </row>
+    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="126"/>
+      <c r="E59" s="132"/>
+      <c r="F59" s="47"/>
+      <c r="W59" s="108"/>
+      <c r="X59" s="45"/>
+      <c r="Y59" s="45"/>
+      <c r="Z59" s="45"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+    </row>
+    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="100"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="47"/>
+      <c r="T60" s="102"/>
+      <c r="U60" s="102"/>
+      <c r="W60" s="108"/>
+      <c r="X60" s="102"/>
+      <c r="Y60" s="102"/>
+      <c r="Z60" s="102"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+    </row>
+    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="34"/>
+      <c r="C61" s="95">
+        <v>43952</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="72">
+        <v>44196</v>
+      </c>
+      <c r="U61" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="W61" s="108"/>
+      <c r="X61" s="45"/>
+      <c r="Y61" s="45"/>
+      <c r="Z61" s="45"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+    </row>
+    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="98"/>
-      <c r="E32" s="99"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B33" s="18">
-        <v>43922</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="123">
-        <v>44012</v>
-      </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="49" t="s">
+      <c r="B62" s="12"/>
+      <c r="C62" s="141">
+        <v>44007</v>
+      </c>
+      <c r="D62" s="141"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="W62" s="53"/>
+      <c r="X62" s="45"/>
+      <c r="Y62" s="45"/>
+      <c r="Z62" s="45"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+    </row>
+    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="34"/>
+      <c r="C63" s="73">
+        <v>43952</v>
+      </c>
+      <c r="D63" s="6">
+        <v>44007</v>
+      </c>
+      <c r="E63" s="34"/>
+      <c r="F63" s="47"/>
+      <c r="W63" s="53"/>
+      <c r="X63" s="45"/>
+      <c r="Y63" s="45"/>
+      <c r="Z63" s="45"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+    </row>
+    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="138"/>
+      <c r="E64" s="139"/>
+      <c r="F64" s="47"/>
+      <c r="W64" s="53"/>
+      <c r="X64" s="45"/>
+      <c r="Y64" s="45"/>
+      <c r="Z64" s="45"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+    </row>
+    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="138"/>
+      <c r="E65" s="139"/>
+      <c r="F65" s="47"/>
+      <c r="W65" s="53"/>
+      <c r="X65" s="45"/>
+      <c r="Y65" s="45"/>
+      <c r="Z65" s="45"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+    </row>
+    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="W33" s="47"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D34" s="98"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="50"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
-        <v>4</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="98"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="50"/>
-      <c r="U35" s="36"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="47"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C36" s="40">
+      <c r="C66" s="38">
         <v>43952</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="9">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="R66" s="51"/>
+      <c r="W66" s="53"/>
+      <c r="X66" s="45"/>
+      <c r="Y66" s="45"/>
+      <c r="Z66" s="45"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+    </row>
+    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="4"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="143"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="18">
+        <v>44166</v>
+      </c>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="115">
+        <v>2958465</v>
+      </c>
+      <c r="R67" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="U67" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="W67" s="53"/>
+      <c r="X67" s="45"/>
+      <c r="Y67" s="45"/>
+      <c r="Z67" s="45"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="73">
+        <v>43952</v>
+      </c>
+      <c r="D68" s="74"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="119">
+        <v>2958465</v>
+      </c>
+      <c r="R68" s="51"/>
+      <c r="W68" s="53"/>
+      <c r="X68" s="45"/>
+      <c r="Y68" s="45"/>
+      <c r="Z68" s="45"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+    </row>
+    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="138"/>
+      <c r="E69" s="139"/>
+      <c r="F69" s="47"/>
+      <c r="W69" s="53"/>
+      <c r="X69" s="45"/>
+      <c r="Y69" s="45"/>
+      <c r="Z69" s="45"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+    </row>
+    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="138"/>
+      <c r="E70" s="139"/>
+      <c r="F70" s="47"/>
+      <c r="W70" s="53"/>
+      <c r="X70" s="45"/>
+      <c r="Y70" s="45"/>
+      <c r="Z70" s="45"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+    </row>
+    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="34"/>
+      <c r="C71" s="38">
+        <v>43952</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="W71" s="53"/>
+      <c r="X71" s="45"/>
+      <c r="Y71" s="45"/>
+      <c r="Z71" s="45"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C72" s="4"/>
+      <c r="D72" s="128"/>
+      <c r="E72" s="143"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="K72" s="128"/>
+      <c r="L72" s="18">
+        <v>44197</v>
+      </c>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="115">
+        <v>2958465</v>
+      </c>
+      <c r="R72" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="S72" s="51"/>
+      <c r="U72" s="79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C73" s="73">
+        <v>43952</v>
+      </c>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="82"/>
+      <c r="M73" s="83"/>
+      <c r="N73" s="83"/>
+      <c r="O73" s="83"/>
+      <c r="P73" s="83"/>
+      <c r="Q73" s="124"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="51"/>
+      <c r="W73" s="52"/>
+      <c r="X73" s="45"/>
+      <c r="Y73" s="45"/>
+      <c r="Z73" s="45"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D74" s="144"/>
+      <c r="E74" s="145"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="55"/>
+      <c r="N74" s="51"/>
+      <c r="O74" s="51"/>
+      <c r="P74" s="51"/>
+      <c r="Q74" s="123"/>
+      <c r="R74" s="51"/>
+      <c r="S74" s="51"/>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D75" s="144"/>
+      <c r="E75" s="145"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="55"/>
+      <c r="N75" s="51"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="123"/>
+      <c r="R75" s="51"/>
+      <c r="S75" s="51"/>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A76" s="41">
+        <v>5</v>
+      </c>
+      <c r="B76" s="134" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="134"/>
+      <c r="D76" s="134"/>
+      <c r="E76" s="134"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D77" s="38">
+        <v>43983</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="71"/>
+      <c r="I77" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="J77" s="148"/>
+      <c r="K77" s="148"/>
+      <c r="L77" s="148"/>
+      <c r="M77" s="71"/>
+      <c r="N77" s="71"/>
+      <c r="O77" s="71"/>
+      <c r="P77" s="71"/>
+      <c r="Q77" s="120">
+        <v>2958465</v>
+      </c>
+      <c r="R77" s="45"/>
+      <c r="S77" s="45"/>
+      <c r="U77" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="W77" s="51"/>
+      <c r="X77" s="45"/>
+      <c r="Y77" s="45"/>
+      <c r="Z77" s="45"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D78" s="126"/>
+      <c r="E78" s="132"/>
+      <c r="F78" s="47"/>
+      <c r="K78" s="66">
+        <v>44166</v>
+      </c>
+      <c r="L78" s="70"/>
+      <c r="M78" s="154" t="s">
+        <v>1</v>
+      </c>
+      <c r="N78" s="154"/>
+      <c r="O78" s="70"/>
+      <c r="P78" s="70"/>
+      <c r="Q78" s="115">
+        <v>2958465</v>
+      </c>
+      <c r="R78" s="57"/>
+      <c r="S78" s="57"/>
+      <c r="T78" s="57"/>
+      <c r="U78" s="57"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D79" s="30">
+        <v>43983</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="H79" s="140"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="6">
+        <v>44165</v>
+      </c>
+      <c r="W79" s="52"/>
+      <c r="X79" s="45"/>
+      <c r="Y79" s="45"/>
+      <c r="Z79" s="45"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D80" s="126"/>
+      <c r="E80" s="132"/>
+      <c r="F80" s="47"/>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D81" s="126"/>
+      <c r="E81" s="132"/>
+      <c r="F81" s="47"/>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A82" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="38">
+        <v>43983</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="J82" s="155"/>
+      <c r="K82" s="155"/>
+      <c r="L82" s="63"/>
+      <c r="M82" s="63"/>
+      <c r="N82" s="63"/>
+      <c r="O82" s="63"/>
+      <c r="P82" s="63"/>
+      <c r="Q82" s="120">
+        <v>2958465</v>
+      </c>
+      <c r="R82" s="45"/>
+      <c r="S82" s="45"/>
+      <c r="U82" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="W82" s="51"/>
+      <c r="X82" s="45"/>
+      <c r="Y82" s="45"/>
+      <c r="Z82" s="45"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C83" s="4"/>
+      <c r="D83" s="126"/>
+      <c r="E83" s="132"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="66">
+        <v>44105</v>
+      </c>
+      <c r="J83" s="65"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="151" t="s">
+        <v>2</v>
+      </c>
+      <c r="M83" s="151"/>
+      <c r="N83" s="65"/>
+      <c r="O83" s="65"/>
+      <c r="P83" s="65"/>
+      <c r="Q83" s="115">
+        <v>2958465</v>
+      </c>
+      <c r="R83" s="57"/>
+      <c r="S83" s="57"/>
+      <c r="T83" s="57"/>
+      <c r="U83" s="57"/>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C84" s="4"/>
+      <c r="D84" s="30">
+        <v>43983</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" s="153"/>
+      <c r="H84" s="69">
         <v>44104</v>
       </c>
-      <c r="R36" s="85"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="89"/>
-      <c r="U36" s="86"/>
-      <c r="V36" s="86"/>
-      <c r="W36" s="86"/>
-      <c r="X36" s="86"/>
-      <c r="Y36" s="47"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C37" s="18">
-        <v>43952</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5">
-        <v>44347</v>
-      </c>
-      <c r="R37" s="22"/>
-      <c r="S37" s="89"/>
-      <c r="T37" s="89"/>
-      <c r="U37" s="86"/>
-      <c r="V37" s="86"/>
-      <c r="W37" s="86"/>
-      <c r="X37" s="86"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C38" s="32">
-        <v>43952</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="131"/>
-      <c r="O38" s="131"/>
-      <c r="P38" s="6">
-        <v>44347</v>
-      </c>
-      <c r="S38" s="89"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="86"/>
-      <c r="V38" s="86"/>
-      <c r="W38" s="86"/>
-      <c r="X38" s="86"/>
-      <c r="Y38" s="47"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="98"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="50"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="98"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="50"/>
-      <c r="W40" s="47"/>
-      <c r="X40" s="47"/>
-      <c r="Y40" s="47"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B41" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="47"/>
-      <c r="Y41" s="47"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="40">
-        <v>43952</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="9">
-        <v>44347</v>
-      </c>
-      <c r="W42" s="47"/>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="47"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C43" s="22"/>
-      <c r="D43" s="112">
-        <v>43983</v>
-      </c>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5">
-        <v>44196</v>
-      </c>
-      <c r="L43" s="95"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="W43" s="47"/>
-      <c r="X43" s="47"/>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C44" s="32">
-        <v>43952</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6">
-        <v>44196</v>
-      </c>
-      <c r="L44" s="22"/>
-      <c r="M44" s="130"/>
-      <c r="N44" s="130"/>
-      <c r="O44" s="130"/>
-      <c r="P44" s="22"/>
-      <c r="W44" s="47"/>
-      <c r="X44" s="47"/>
-      <c r="Y44" s="47"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D45" s="98"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="50"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="47"/>
-      <c r="Y45" s="47"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D46" s="98"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="50"/>
-      <c r="W46" s="47"/>
-      <c r="X46" s="47"/>
-      <c r="Y46" s="47"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="133">
-        <v>43983</v>
-      </c>
-      <c r="E47" s="133"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="9">
-        <v>44104</v>
-      </c>
-      <c r="W47" s="47"/>
-      <c r="X47" s="47"/>
-      <c r="Y47" s="47"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C48" s="18">
-        <v>43952</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5">
-        <v>44286</v>
-      </c>
-      <c r="O48" s="95"/>
-      <c r="W48" s="47"/>
-      <c r="X48" s="47"/>
-      <c r="Y48" s="47"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C49" s="34"/>
-      <c r="D49" s="134">
-        <v>43983</v>
-      </c>
-      <c r="E49" s="134"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="6">
-        <v>44286</v>
-      </c>
-      <c r="O49" s="35"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="47"/>
-      <c r="Y49" s="47"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D50" s="98"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="50"/>
-      <c r="W50" s="47"/>
-      <c r="X50" s="47"/>
-      <c r="Y50" s="47"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D51" s="98"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="50"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="47"/>
-      <c r="Y51" s="47"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="31">
-        <v>43952</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9">
-        <v>44255</v>
-      </c>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="47"/>
-      <c r="X52" s="47"/>
-      <c r="Y52" s="47"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C53" s="4"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5">
-        <v>44316</v>
-      </c>
-      <c r="P53" s="95"/>
-      <c r="Q53" s="55"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="47"/>
-      <c r="Y53" s="47"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C54" s="78">
-        <v>43952</v>
-      </c>
-      <c r="D54" s="80"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6">
-        <v>44316</v>
-      </c>
-      <c r="V54" s="56"/>
-      <c r="W54" s="47"/>
-      <c r="X54" s="47"/>
-      <c r="Y54" s="47"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D55" s="121"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="V55" s="57"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D56" s="98"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="50"/>
-      <c r="V56" s="54"/>
-      <c r="W56" s="47"/>
-      <c r="X56" s="47"/>
-      <c r="Y56" s="47"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="31">
-        <v>43952</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="77">
-        <v>44196</v>
-      </c>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B58" s="18">
-        <v>43922</v>
-      </c>
-      <c r="C58" s="5">
-        <v>43982</v>
-      </c>
-      <c r="D58" s="101"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="50"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="54"/>
-      <c r="R58" s="54"/>
-      <c r="V58" s="56"/>
-      <c r="W58" s="47"/>
-      <c r="X58" s="47"/>
-      <c r="Y58" s="47"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="78">
-        <v>43952</v>
-      </c>
-      <c r="D59" s="124">
-        <v>44012</v>
-      </c>
-      <c r="E59" s="125"/>
-      <c r="F59" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="V59" s="56"/>
-      <c r="W59" s="84"/>
-      <c r="X59" s="84"/>
-      <c r="Y59" s="84"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B60" s="36"/>
-      <c r="C60" s="97">
-        <v>43952</v>
-      </c>
-      <c r="D60" s="72">
-        <v>44006</v>
-      </c>
-      <c r="E60" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="F60" s="50"/>
-      <c r="L60" s="54"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-    </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="98"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="50"/>
-      <c r="N61" s="54"/>
-      <c r="V61" s="57"/>
-      <c r="W61" s="47"/>
-      <c r="X61" s="47"/>
-      <c r="Y61" s="47"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-    </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D62" s="98"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="50"/>
-      <c r="V62" s="57"/>
-      <c r="W62" s="47"/>
-      <c r="X62" s="47"/>
-      <c r="Y62" s="47"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-    </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="36"/>
-      <c r="C63" s="31">
-        <v>43952</v>
-      </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="77">
-        <v>44196</v>
-      </c>
-      <c r="V63" s="57"/>
-      <c r="W63" s="47"/>
-      <c r="X63" s="47"/>
-      <c r="Y63" s="47"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-    </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="43" t="s">
+      <c r="I84" s="68">
+        <v>44105</v>
+      </c>
+      <c r="J84" s="67"/>
+      <c r="K84" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="123">
-        <v>44006</v>
-      </c>
-      <c r="D64" s="123"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="V64" s="57"/>
-      <c r="W64" s="47"/>
-      <c r="X64" s="47"/>
-      <c r="Y64" s="47"/>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-    </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="36"/>
-      <c r="C65" s="78">
-        <v>43952</v>
-      </c>
-      <c r="D65" s="6">
-        <v>44006</v>
-      </c>
-      <c r="E65" s="36"/>
-      <c r="F65" s="50"/>
-      <c r="V65" s="57"/>
-      <c r="W65" s="47"/>
-      <c r="X65" s="47"/>
-      <c r="Y65" s="47"/>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="3"/>
-    </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="104"/>
-      <c r="F66" s="50"/>
-      <c r="V66" s="57"/>
-      <c r="W66" s="47"/>
-      <c r="X66" s="47"/>
-      <c r="Y66" s="47"/>
-      <c r="Z66" s="3"/>
-      <c r="AA66" s="3"/>
-    </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="50"/>
-      <c r="V67" s="57"/>
-      <c r="W67" s="47"/>
-      <c r="X67" s="47"/>
-      <c r="Y67" s="47"/>
-      <c r="Z67" s="3"/>
-      <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" s="40">
-        <v>43952</v>
-      </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="54"/>
-      <c r="V68" s="57"/>
-      <c r="W68" s="47"/>
-      <c r="X68" s="47"/>
-      <c r="Y68" s="47"/>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
-    </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="4"/>
-      <c r="D69" s="119"/>
-      <c r="E69" s="120"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="18">
-        <v>44166</v>
-      </c>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5">
-        <v>44286</v>
-      </c>
-      <c r="Q69" s="95"/>
-      <c r="V69" s="57"/>
-      <c r="W69" s="47"/>
-      <c r="X69" s="47"/>
-      <c r="Y69" s="47"/>
-      <c r="Z69" s="3"/>
-      <c r="AA69" s="3"/>
-    </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="78">
-        <v>43952</v>
-      </c>
-      <c r="D70" s="79"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6">
-        <v>44286</v>
-      </c>
-      <c r="Q70" s="54"/>
-      <c r="V70" s="57"/>
-      <c r="W70" s="47"/>
-      <c r="X70" s="47"/>
-      <c r="Y70" s="47"/>
-      <c r="Z70" s="3"/>
-      <c r="AA70" s="3"/>
-    </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="103"/>
-      <c r="E71" s="104"/>
-      <c r="F71" s="50"/>
-      <c r="V71" s="57"/>
-      <c r="W71" s="47"/>
-      <c r="X71" s="47"/>
-      <c r="Y71" s="47"/>
-      <c r="Z71" s="3"/>
-      <c r="AA71" s="3"/>
-    </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="103"/>
-      <c r="E72" s="104"/>
-      <c r="F72" s="50"/>
-      <c r="V72" s="57"/>
-      <c r="W72" s="47"/>
-      <c r="X72" s="47"/>
-      <c r="Y72" s="47"/>
-      <c r="Z72" s="3"/>
-      <c r="AA72" s="3"/>
-    </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="40">
-        <v>43952</v>
-      </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="V73" s="57"/>
-      <c r="W73" s="47"/>
-      <c r="X73" s="47"/>
-      <c r="Y73" s="47"/>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="3"/>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C74" s="4"/>
-      <c r="D74" s="119"/>
-      <c r="E74" s="120"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="119" t="s">
-        <v>66</v>
-      </c>
-      <c r="K74" s="119"/>
-      <c r="L74" s="18">
-        <v>44197</v>
-      </c>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5">
-        <v>44286</v>
-      </c>
-      <c r="Q74" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="R74" s="54"/>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C75" s="78">
-        <v>43952</v>
-      </c>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="87"/>
-      <c r="M75" s="88"/>
-      <c r="N75" s="88"/>
-      <c r="O75" s="88"/>
-      <c r="P75" s="88"/>
-      <c r="Q75" s="54"/>
-      <c r="R75" s="54"/>
-      <c r="V75" s="56"/>
-      <c r="W75" s="47"/>
-      <c r="X75" s="47"/>
-      <c r="Y75" s="47"/>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D76" s="121"/>
-      <c r="E76" s="122"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="59"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="54"/>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D77" s="121"/>
-      <c r="E77" s="122"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="59"/>
-      <c r="L77" s="59"/>
-      <c r="M77" s="59"/>
-      <c r="N77" s="54"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="54"/>
-      <c r="Q77" s="54"/>
-      <c r="R77" s="54"/>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A78" s="43">
-        <v>5</v>
-      </c>
-      <c r="B78" s="118" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" s="118"/>
-      <c r="D78" s="118"/>
-      <c r="E78" s="118"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D79" s="40">
-        <v>43983</v>
-      </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="76"/>
-      <c r="H79" s="76"/>
-      <c r="I79" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="J79" s="100"/>
-      <c r="K79" s="100"/>
-      <c r="L79" s="100"/>
-      <c r="M79" s="76"/>
-      <c r="N79" s="76"/>
-      <c r="O79" s="76"/>
-      <c r="P79" s="9">
-        <v>44286</v>
-      </c>
-      <c r="Q79" s="47"/>
-      <c r="R79" s="47"/>
-      <c r="V79" s="54"/>
-      <c r="W79" s="47"/>
-      <c r="X79" s="47"/>
-      <c r="Y79" s="47"/>
-      <c r="Z79" s="3"/>
-      <c r="AA79" s="3"/>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D80" s="98"/>
-      <c r="E80" s="99"/>
-      <c r="F80" s="50"/>
-      <c r="K80" s="71">
-        <v>44166</v>
-      </c>
-      <c r="L80" s="75"/>
-      <c r="M80" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="N80" s="109"/>
-      <c r="O80" s="75"/>
-      <c r="P80" s="70">
-        <v>44286</v>
-      </c>
-      <c r="Q80" s="61"/>
-      <c r="R80" s="61"/>
-      <c r="S80" s="61"/>
-      <c r="T80" s="61"/>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D81" s="32">
-        <v>43983</v>
-      </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="H81" s="108"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="6">
-        <v>44165</v>
-      </c>
-      <c r="V81" s="56"/>
-      <c r="W81" s="47"/>
-      <c r="X81" s="47"/>
-      <c r="Y81" s="47"/>
-      <c r="Z81" s="3"/>
-      <c r="AA81" s="3"/>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D82" s="98"/>
-      <c r="E82" s="99"/>
-      <c r="F82" s="50"/>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D83" s="98"/>
-      <c r="E83" s="99"/>
-      <c r="F83" s="50"/>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A84" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="40">
-        <v>43983</v>
-      </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="J84" s="110"/>
-      <c r="K84" s="110"/>
-      <c r="L84" s="67"/>
-      <c r="M84" s="67"/>
-      <c r="N84" s="67"/>
+      <c r="L84" s="152"/>
+      <c r="M84" s="152"/>
+      <c r="N84" s="152"/>
       <c r="O84" s="67"/>
       <c r="P84" s="67"/>
-      <c r="Q84" s="47"/>
-      <c r="R84" s="47"/>
-      <c r="V84" s="54"/>
-      <c r="W84" s="47"/>
-      <c r="X84" s="47"/>
-      <c r="Y84" s="47"/>
-      <c r="Z84" s="3"/>
+      <c r="Q84" s="125">
+        <v>2958465</v>
+      </c>
+      <c r="R84" s="45"/>
+      <c r="S84" s="45"/>
+      <c r="W84" s="52"/>
+      <c r="X84" s="45"/>
+      <c r="Y84" s="45"/>
+      <c r="Z84" s="45"/>
       <c r="AA84" s="3"/>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C85" s="4"/>
-      <c r="D85" s="98"/>
-      <c r="E85" s="99"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="71">
-        <v>44105</v>
-      </c>
-      <c r="J85" s="69"/>
-      <c r="K85" s="69"/>
-      <c r="L85" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="M85" s="105"/>
-      <c r="N85" s="69"/>
-      <c r="O85" s="69"/>
-      <c r="P85" s="70">
-        <v>44286</v>
-      </c>
-      <c r="Q85" s="61"/>
-      <c r="R85" s="61"/>
-      <c r="S85" s="61"/>
-      <c r="T85" s="61"/>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C86" s="4"/>
-      <c r="D86" s="32">
-        <v>43983</v>
-      </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="G86" s="107"/>
-      <c r="H86" s="74">
-        <v>44104</v>
-      </c>
-      <c r="I86" s="73">
-        <v>44105</v>
-      </c>
-      <c r="J86" s="72"/>
-      <c r="K86" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="L86" s="106"/>
-      <c r="M86" s="106"/>
-      <c r="N86" s="106"/>
-      <c r="O86" s="72"/>
-      <c r="P86" s="72">
-        <v>44286</v>
-      </c>
-      <c r="Q86" s="47"/>
-      <c r="R86" s="47"/>
-      <c r="V86" s="56"/>
-      <c r="W86" s="47"/>
-      <c r="X86" s="47"/>
-      <c r="Y86" s="47"/>
-      <c r="Z86" s="3"/>
+      <c r="AB84" s="3"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D85" s="126"/>
+      <c r="E85" s="132"/>
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="45"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="126"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="34"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
+      <c r="Q86" s="121"/>
+      <c r="R86" s="34"/>
+      <c r="S86" s="34"/>
+      <c r="T86" s="79"/>
+      <c r="U86" s="79"/>
+      <c r="V86" s="34"/>
+      <c r="W86" s="53"/>
+      <c r="X86" s="45"/>
+      <c r="Y86" s="45"/>
+      <c r="Z86" s="45"/>
       <c r="AA86" s="3"/>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D87" s="98"/>
-      <c r="E87" s="99"/>
-      <c r="F87" s="50"/>
-    </row>
-    <row r="88" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="98"/>
-      <c r="E88" s="99"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="36"/>
-      <c r="P88" s="36"/>
-      <c r="Q88" s="36"/>
-      <c r="R88" s="36"/>
-      <c r="S88" s="84"/>
-      <c r="T88" s="84"/>
-      <c r="U88" s="36"/>
-      <c r="V88" s="57"/>
-      <c r="W88" s="47"/>
-      <c r="X88" s="47"/>
-      <c r="Y88" s="47"/>
-      <c r="Z88" s="3"/>
+      <c r="AB86" s="3"/>
+    </row>
+    <row r="87" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="45">
+        <v>6</v>
+      </c>
+      <c r="B87" s="146" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="146"/>
+      <c r="D87" s="146"/>
+      <c r="E87" s="147"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
+      <c r="Q87" s="121"/>
+      <c r="R87" s="34"/>
+      <c r="S87" s="34"/>
+      <c r="T87" s="79"/>
+      <c r="U87" s="79"/>
+      <c r="V87" s="34"/>
+      <c r="W87" s="53"/>
+      <c r="X87" s="45"/>
+      <c r="Y87" s="45"/>
+      <c r="Z87" s="45"/>
+      <c r="AA87" s="3"/>
+      <c r="AB87" s="3"/>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C88" s="4"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="132"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="38">
+        <v>44197</v>
+      </c>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="120">
+        <v>2958465</v>
+      </c>
+      <c r="R88" s="10"/>
+      <c r="U88" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="W88" s="51"/>
+      <c r="X88" s="45"/>
+      <c r="Y88" s="45"/>
+      <c r="Z88" s="45"/>
       <c r="AA88" s="3"/>
-    </row>
-    <row r="89" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="47">
-        <v>6</v>
-      </c>
-      <c r="B89" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="C89" s="114"/>
-      <c r="D89" s="114"/>
-      <c r="E89" s="115"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="36"/>
-      <c r="P89" s="36"/>
-      <c r="Q89" s="36"/>
-      <c r="R89" s="36"/>
-      <c r="S89" s="84"/>
-      <c r="T89" s="84"/>
-      <c r="U89" s="36"/>
-      <c r="V89" s="57"/>
-      <c r="W89" s="47"/>
-      <c r="X89" s="47"/>
-      <c r="Y89" s="47"/>
-      <c r="Z89" s="3"/>
-      <c r="AA89" s="3"/>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB88" s="3"/>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C89" s="4"/>
+      <c r="D89" s="126"/>
+      <c r="E89" s="126"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="18">
+        <v>44044</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5">
+        <v>44165</v>
+      </c>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="R89" s="10"/>
+      <c r="W89" s="51"/>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C90" s="4"/>
-      <c r="D90" s="98"/>
-      <c r="E90" s="99"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
+      <c r="D90" s="126"/>
+      <c r="E90" s="156"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="30">
+        <v>44044</v>
+      </c>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6">
+        <v>44165</v>
+      </c>
       <c r="K90" s="4"/>
-      <c r="L90" s="40">
-        <v>44197</v>
-      </c>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9">
-        <v>44286</v>
-      </c>
-      <c r="Q90" s="10"/>
-      <c r="V90" s="54"/>
-      <c r="W90" s="47"/>
-      <c r="X90" s="47"/>
-      <c r="Y90" s="47"/>
-      <c r="Z90" s="3"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="R90" s="10"/>
+      <c r="W90" s="52"/>
+      <c r="X90" s="45"/>
+      <c r="Y90" s="45"/>
+      <c r="Z90" s="45"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C91" s="4"/>
-      <c r="D91" s="98"/>
-      <c r="E91" s="98"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="18">
-        <v>44044</v>
-      </c>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5">
-        <v>44165</v>
-      </c>
+      <c r="D91" s="126"/>
+      <c r="E91" s="132"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
-      <c r="Q91" s="10"/>
-      <c r="V91" s="54"/>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C92" s="4"/>
-      <c r="D92" s="98"/>
-      <c r="E92" s="111"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="32">
-        <v>44044</v>
-      </c>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6">
-        <v>44165</v>
-      </c>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="10"/>
-      <c r="V92" s="56"/>
-      <c r="W92" s="47"/>
-      <c r="X92" s="47"/>
-      <c r="Y92" s="47"/>
-      <c r="Z92" s="3"/>
-      <c r="AA92" s="3"/>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C93" s="4"/>
-      <c r="D93" s="98"/>
-      <c r="E93" s="99"/>
+      <c r="R91" s="10"/>
+      <c r="X91" s="45"/>
+      <c r="Y91" s="45"/>
+      <c r="Z91" s="45"/>
+      <c r="AA91" s="3"/>
+      <c r="AB91" s="3"/>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D92" s="126"/>
+      <c r="E92" s="132"/>
+      <c r="F92" s="47"/>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A93" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="126"/>
+      <c r="E93" s="132"/>
       <c r="F93" s="7"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="10"/>
-      <c r="W93" s="47"/>
-      <c r="X93" s="47"/>
-      <c r="Y93" s="47"/>
-      <c r="Z93" s="3"/>
-      <c r="AA93" s="3"/>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D94" s="98"/>
-      <c r="E94" s="99"/>
-      <c r="F94" s="50"/>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A95" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95" s="98"/>
-      <c r="E95" s="99"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="40">
+      <c r="L93" s="38">
         <v>44197</v>
       </c>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="9">
-        <v>44286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D96" s="112">
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="120">
+        <v>2958465</v>
+      </c>
+      <c r="R93" s="159" t="s">
+        <v>96</v>
+      </c>
+      <c r="U93" s="79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D94" s="129">
         <v>43983</v>
       </c>
-      <c r="E96" s="113"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5">
+      <c r="E94" s="157"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5">
         <v>44165</v>
       </c>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-    </row>
-    <row r="97" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D97" s="117"/>
-      <c r="E97" s="117"/>
-      <c r="F97" s="13">
-        <v>44013</v>
-      </c>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6">
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="R94" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D95" s="137">
+        <v>43983</v>
+      </c>
+      <c r="E95" s="137"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6">
         <v>44165</v>
       </c>
-      <c r="K97" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-    </row>
-    <row r="98" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D98" s="53"/>
-      <c r="E98" s="116">
-        <v>44007</v>
-      </c>
-      <c r="F98" s="116"/>
-      <c r="G98" s="93"/>
-      <c r="H98" s="93"/>
-      <c r="I98" s="93"/>
-      <c r="J98" s="93">
-        <v>44165</v>
-      </c>
-      <c r="K98" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
-    </row>
-    <row r="99" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D99" s="98"/>
-      <c r="E99" s="99"/>
-      <c r="F99" s="50"/>
-    </row>
-    <row r="100" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D100" s="98"/>
-      <c r="E100" s="98"/>
-    </row>
-    <row r="101" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D101" s="98"/>
-      <c r="E101" s="98"/>
-    </row>
-    <row r="102" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D102" s="98"/>
-      <c r="E102" s="98"/>
-    </row>
-    <row r="103" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D103" s="98"/>
-      <c r="E103" s="98"/>
-    </row>
-    <row r="104" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D104" s="98"/>
-      <c r="E104" s="98"/>
-    </row>
-    <row r="105" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D105" s="98"/>
-      <c r="E105" s="98"/>
-    </row>
-    <row r="106" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D106" s="98"/>
-      <c r="E106" s="98"/>
-    </row>
-    <row r="107" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D107" s="98"/>
-      <c r="E107" s="98"/>
-    </row>
-    <row r="108" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D108" s="98"/>
-      <c r="E108" s="98"/>
-    </row>
-    <row r="109" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D109" s="98"/>
-      <c r="E109" s="98"/>
-    </row>
-    <row r="110" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D110" s="98"/>
-      <c r="E110" s="98"/>
-    </row>
-    <row r="111" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D111" s="98"/>
-      <c r="E111" s="98"/>
-    </row>
-    <row r="112" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D112" s="98"/>
-      <c r="E112" s="98"/>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D113" s="98"/>
-      <c r="E113" s="98"/>
+      <c r="K95" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D96" s="126"/>
+      <c r="E96" s="132"/>
+      <c r="F96" s="47"/>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D97" s="126"/>
+      <c r="E97" s="126"/>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D98" s="126"/>
+      <c r="E98" s="126"/>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D99" s="126"/>
+      <c r="E99" s="126"/>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D100" s="126"/>
+      <c r="E100" s="126"/>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D101" s="126"/>
+      <c r="E101" s="126"/>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D102" s="126"/>
+      <c r="E102" s="126"/>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D103" s="126"/>
+      <c r="E103" s="126"/>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D104" s="126"/>
+      <c r="E104" s="126"/>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D105" s="126"/>
+      <c r="E105" s="126"/>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D106" s="126"/>
+      <c r="E106" s="126"/>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D107" s="126"/>
+      <c r="E107" s="126"/>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D108" s="126"/>
+      <c r="E108" s="126"/>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D109" s="126"/>
+      <c r="E109" s="126"/>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D110" s="126"/>
+      <c r="E110" s="126"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
+  <mergeCells count="95">
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
@@ -6383,65 +6472,29 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="I84:K84"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6473,19 +6526,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="158" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="135" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="135" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
+      <c r="C1" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -6501,36 +6554,36 @@
       <c r="T1" s="14"/>
     </row>
     <row r="2" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="158"/>
       <c r="C2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -6538,75 +6591,75 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -6630,361 +6683,361 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33CF594-D631-49AB-8886-0C9260E8F053}">
   <dimension ref="D2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O29" sqref="B1:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="136"/>
-    <col min="6" max="6" width="10.140625" style="136" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="136" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="136" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="136" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="136"/>
-    <col min="11" max="11" width="10.5703125" style="136" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="136" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="136" customWidth="1"/>
-    <col min="14" max="14" width="12" style="136" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="136" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="136"/>
+    <col min="1" max="5" width="9.140625" style="91"/>
+    <col min="6" max="6" width="10.140625" style="91" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="91" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="91" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="91" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="91"/>
+    <col min="11" max="11" width="10.5703125" style="91" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="91" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="91" customWidth="1"/>
+    <col min="14" max="14" width="12" style="91" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="91" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="91"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D2" s="136" t="s">
+      <c r="D2" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="92">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="3" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="H3" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="H4" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="I4" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="137">
+      <c r="J4" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="92">
         <v>43952</v>
       </c>
     </row>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H3" s="136" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="136" t="s">
+    <row r="5" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="F5" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="92">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="I6" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="I7" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="136" t="s">
+      <c r="K7" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="136" t="s">
+      <c r="L7" s="92">
+        <v>44013</v>
+      </c>
+      <c r="M7" s="92">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="F9" s="91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="H10" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="H11" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="136" t="s">
+      <c r="M11" s="92">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D14" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="92">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="H15" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="H16" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="92">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="F17" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="136" t="s">
+      <c r="G17" s="92">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="H18" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="136" t="s">
+      <c r="L18" s="91" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H4" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="136" t="s">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="H19" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="92">
+        <v>43922</v>
+      </c>
+      <c r="L19" s="92">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D21" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="136" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" s="137">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="F5" s="136" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="137">
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="F22" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="92">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="H23" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="H24" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="92">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="F25" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="92">
         <v>44013</v>
       </c>
     </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I6" s="136" t="s">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="H26" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="H27" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="136" t="s">
+      <c r="J27" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="136" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="136" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" s="136" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I7" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="136" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="136" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="137">
+      <c r="K27" s="92">
         <v>44013</v>
       </c>
-      <c r="M7" s="137">
-        <v>44347</v>
-      </c>
-    </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="F9" s="136" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H10" s="136" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="136" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="136" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="136" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="136" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="136" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H11" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="136" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="136" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="137">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D14" s="136" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="136" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="137">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H15" s="136" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="136" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="136" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" s="136" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" s="136" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" s="136" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="136" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" s="136" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="M16" s="137">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="F17" s="136" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="137">
-        <v>44013</v>
-      </c>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H18" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="136" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="136" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="136" t="s">
-        <v>90</v>
-      </c>
-      <c r="L18" s="136" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H19" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="136" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="136" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" s="137">
-        <v>43922</v>
-      </c>
-      <c r="L19" s="137">
-        <v>43982</v>
-      </c>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D21" s="136" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="F22" s="136" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="137">
-        <v>43983</v>
-      </c>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H23" s="136" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="J23" s="136" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="136" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="136" t="s">
-        <v>81</v>
-      </c>
-      <c r="M23" s="136" t="s">
-        <v>82</v>
-      </c>
-      <c r="N23" s="136" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H24" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" s="136" t="s">
-        <v>86</v>
-      </c>
-      <c r="K24" s="136" t="s">
-        <v>87</v>
-      </c>
-      <c r="L24" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="M24" s="137">
-        <v>43983</v>
-      </c>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="F25" s="136" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="137">
-        <v>44013</v>
-      </c>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H26" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="136" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="136" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" s="136" t="s">
-        <v>90</v>
-      </c>
-      <c r="L26" s="136" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H27" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="136" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" s="136" t="s">
-        <v>87</v>
-      </c>
-      <c r="K27" s="137">
-        <v>44013</v>
-      </c>
-      <c r="L27" s="137">
+      <c r="L27" s="92">
         <v>44165</v>
       </c>
     </row>
@@ -6998,18 +7051,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7198,6 +7251,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F3FC176-AA22-4B73-87AC-F9BFD6649A24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B35199A-C772-4B8E-B290-AAD46B6DA3E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="eb64471f-f124-4427-8065-1a725aacdba4"/>
@@ -7210,14 +7271,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F3FC176-AA22-4B73-87AC-F9BFD6649A24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/VW_PSA_BPU_BPLV_XREF-JA.xlsx
+++ b/VW_PSA_BPU_BPLV_XREF-JA.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Data\Aetna\_Tasks\PSA\Doc\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49803126-CA90-4777-AFE1-44B89E521BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69E0DD5-D93F-44F6-9EA7-D82DCAB515CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DD21D0D-9625-43E7-A916-38D0329A8D14}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DD21D0D-9625-43E7-A916-38D0329A8D14}"/>
   </bookViews>
   <sheets>
     <sheet name="VW_BPU_BPLV_XREF" sheetId="1" r:id="rId1"/>
     <sheet name="Purge requests" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Example" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="111">
   <si>
     <t>B1:P1:LV1</t>
   </si>
@@ -434,12 +434,6 @@
     </r>
   </si>
   <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>CSA</t>
   </si>
   <si>
@@ -449,48 +443,15 @@
     <t>BPLV</t>
   </si>
   <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Supplier St</t>
-  </si>
-  <si>
-    <t>Supplier End</t>
-  </si>
-  <si>
     <t>PSUID1</t>
   </si>
   <si>
-    <t>CSA1</t>
-  </si>
-  <si>
     <t>AA</t>
   </si>
   <si>
     <t>BPLV1</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>PERS feed</t>
-  </si>
-  <si>
-    <t>Eff start</t>
-  </si>
-  <si>
-    <t>Eff End</t>
-  </si>
-  <si>
-    <t>Outcome?</t>
-  </si>
-  <si>
-    <t>4D</t>
-  </si>
-  <si>
-    <t>6A</t>
-  </si>
-  <si>
     <t>OK but check with PERS and with Chitra  that it is OK with them as well</t>
   </si>
   <si>
@@ -525,17 +486,93 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>T1: 05/01/2020 - new Plan Sponsor / Supplier creation</t>
+  </si>
+  <si>
+    <t>PERS feed:</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Outcome:</t>
+  </si>
+  <si>
+    <t>Plan Sponsor:</t>
+  </si>
+  <si>
+    <t>Effective End Date</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Supplier:</t>
+  </si>
+  <si>
+    <t>PSUID1-1</t>
+  </si>
+  <si>
+    <t>Suplier Name</t>
+  </si>
+  <si>
+    <t>Purchased Product:</t>
+  </si>
+  <si>
+    <t>Product Code</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Product Live DT</t>
+  </si>
+  <si>
+    <t>BPU_CD</t>
+  </si>
+  <si>
+    <t>START_DT</t>
+  </si>
+  <si>
+    <t>END_DT</t>
+  </si>
+  <si>
+    <t>C1-S1-A1</t>
+  </si>
+  <si>
+    <t>PSUID1-C1-S1-A1-AA</t>
+  </si>
+  <si>
+    <t>PSA_BPU_BPLV_XREF:</t>
+  </si>
+  <si>
+    <t>Product Termination DT</t>
+  </si>
+  <si>
+    <t>T2: 07/01/2020 - Supplier termination</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Effective Start Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,6 +675,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -729,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -747,9 +792,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -893,7 +935,6 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -958,108 +999,161 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1084,15 +1178,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>414618</xdr:colOff>
+      <xdr:colOff>419102</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>419102</xdr:colOff>
+      <xdr:colOff>425824</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1106,9 +1200,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2319618" y="10593481"/>
-          <a:ext cx="4484" cy="354666"/>
+        <a:xfrm>
+          <a:off x="2324102" y="10593481"/>
+          <a:ext cx="6722" cy="343460"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4225,13 +4319,13 @@
   <dimension ref="A1:AB110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X58" sqref="X58"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U66" sqref="U66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="41"/>
+    <col min="1" max="1" width="9.140625" style="40"/>
     <col min="2" max="2" width="9.42578125" style="10" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="10" customWidth="1"/>
@@ -4246,13 +4340,13 @@
     <col min="13" max="13" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9.140625" style="10"/>
     <col min="16" max="16" width="8.42578125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="118" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="34" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="34"/>
-    <col min="20" max="20" width="9.140625" style="79"/>
-    <col min="21" max="21" width="46.28515625" style="79" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="116" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="33" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="33"/>
+    <col min="20" max="20" width="9.140625" style="78"/>
+    <col min="21" max="21" width="46.28515625" style="78" customWidth="1"/>
     <col min="22" max="22" width="8.28515625" style="10" customWidth="1"/>
-    <col min="23" max="26" width="8.28515625" style="34" customWidth="1"/>
+    <col min="23" max="26" width="8.28515625" style="33" customWidth="1"/>
     <col min="27" max="28" width="8.28515625" style="1" customWidth="1"/>
     <col min="29" max="31" width="8.28515625" customWidth="1"/>
   </cols>
@@ -4264,118 +4358,118 @@
       <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="135"/>
-      <c r="F1" s="42" t="s">
+      <c r="E1" s="172"/>
+      <c r="F1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85" t="s">
+      <c r="P1" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="126" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>43952</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="5">
         <v>44104</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D4" s="126"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="18">
+      <c r="D4" s="146"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="17">
         <v>44044</v>
       </c>
       <c r="H4" s="5"/>
@@ -4387,49 +4481,49 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="115">
+      <c r="Q4" s="113">
         <v>2958465</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
+      <c r="S4" s="43"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D5" s="126"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="126" t="s">
+      <c r="D5" s="146"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>43952</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -4439,84 +4533,84 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="115">
+      <c r="Q6" s="113">
         <v>2958465</v>
       </c>
-      <c r="R6" s="99" t="s">
-        <v>89</v>
-      </c>
-      <c r="S6" s="44"/>
-      <c r="U6" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
+      <c r="R6" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" s="43"/>
+      <c r="U6" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D7" s="126"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="59">
+      <c r="A8" s="58">
         <v>2</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="132"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="147"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -4528,40 +4622,40 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="S9" s="45"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="44"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="111" t="s">
-        <v>93</v>
+      <c r="A11" s="109" t="s">
+        <v>80</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="25"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="4"/>
@@ -4572,119 +4666,119 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="110" t="s">
-        <v>92</v>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="108" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C12" s="22"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="117"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="115"/>
       <c r="R12" s="10"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="35"/>
+      <c r="A13" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="18"/>
+      <c r="L13" s="17"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="110" t="s">
-        <v>92</v>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="108" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D14" s="126"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D15" s="126"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+      <c r="A16" s="40">
         <v>3</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="47"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="46"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D17" s="126"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="36">
+      <c r="D17" s="146"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="35">
         <v>44044</v>
       </c>
       <c r="H17" s="12"/>
@@ -4696,86 +4790,86 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="115">
+      <c r="Q17" s="113">
         <v>2958465</v>
       </c>
-      <c r="U17" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
+      <c r="U17" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D18" s="126"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="37">
+      <c r="D18" s="146"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="36">
         <v>44044</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="127" t="s">
+      <c r="J18" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="119">
+      <c r="Q18" s="117">
         <v>2958465</v>
       </c>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D19" s="126"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="47"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="46"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D20" s="126"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="47"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="46"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="40" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C22" s="32"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="129">
+      <c r="C22" s="31"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="160">
         <v>44007</v>
       </c>
-      <c r="F22" s="129"/>
+      <c r="F22" s="160"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -4786,91 +4880,91 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="115">
+      <c r="Q22" s="113">
         <v>2958465</v>
       </c>
-      <c r="R22" s="99" t="s">
-        <v>89</v>
-      </c>
-      <c r="U22" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
+      <c r="R22" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="U22" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E23" s="137">
+      <c r="E23" s="162">
         <v>44007</v>
       </c>
-      <c r="F23" s="137"/>
+      <c r="F23" s="162"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="127" t="s">
+      <c r="J23" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="119">
+      <c r="Q23" s="117">
         <v>2958465</v>
       </c>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D24" s="126"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="47"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="46"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D25" s="126"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="47"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="46"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="134" t="s">
+      <c r="B26" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="47"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="46"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C27" s="18">
+      <c r="C27" s="17">
         <v>43952</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="48"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -4881,29 +4975,29 @@
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
-      <c r="Q27" s="115">
+      <c r="Q27" s="113">
         <v>2958465</v>
       </c>
-      <c r="R27" s="99" t="s">
-        <v>89</v>
-      </c>
-      <c r="U27" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
+      <c r="R27" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="U27" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="C28" s="96">
+      <c r="A28" s="77"/>
+      <c r="C28" s="94">
         <v>43952</v>
       </c>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="86">
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="85">
         <v>44013</v>
       </c>
       <c r="G28" s="8"/>
@@ -4916,131 +5010,131 @@
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="119">
+      <c r="Q28" s="117">
         <v>2958465</v>
       </c>
-      <c r="R28" s="112" t="s">
-        <v>90</v>
-      </c>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
+      <c r="R28" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D29" s="126"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="47"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="46"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D30" s="126"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="47"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="46"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="40" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="126"/>
-      <c r="E31" s="132"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="147"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B32" s="18">
+      <c r="B32" s="17">
         <v>43922</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="141">
+      <c r="C32" s="22"/>
+      <c r="D32" s="170">
         <v>44012</v>
       </c>
-      <c r="E32" s="142"/>
-      <c r="F32" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="U32" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="U32" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D33" s="126"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="47"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="46"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="41">
+      <c r="A34" s="40">
         <v>4</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="126"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="47"/>
-      <c r="V34" s="34"/>
-      <c r="X34" s="77"/>
-      <c r="Y34" s="77"/>
-      <c r="Z34" s="45"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="46"/>
+      <c r="V34" s="33"/>
+      <c r="X34" s="76"/>
+      <c r="Y34" s="76"/>
+      <c r="Z34" s="44"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C35" s="38">
+      <c r="C35" s="37">
         <v>43952</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="49"/>
+      <c r="F35" s="48"/>
       <c r="G35" s="11"/>
       <c r="H35" s="9">
         <v>44104</v>
       </c>
-      <c r="S35" s="80"/>
-      <c r="T35" s="84"/>
-      <c r="U35" s="84"/>
-      <c r="V35" s="81"/>
-      <c r="W35" s="81"/>
-      <c r="X35" s="81"/>
-      <c r="Y35" s="81"/>
-      <c r="Z35" s="45"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="83"/>
+      <c r="U35" s="83"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="80"/>
+      <c r="Z35" s="44"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C36" s="18">
+      <c r="C36" s="17">
         <v>43952</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="18"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="17"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5050,108 +5144,108 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="115">
+      <c r="Q36" s="113">
         <v>2958465</v>
       </c>
-      <c r="S36" s="22"/>
-      <c r="T36" s="84"/>
-      <c r="U36" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="V36" s="81"/>
-      <c r="W36" s="81"/>
-      <c r="X36" s="81"/>
-      <c r="Y36" s="81"/>
-      <c r="Z36" s="45"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="83"/>
+      <c r="U36" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="V36" s="80"/>
+      <c r="W36" s="80"/>
+      <c r="X36" s="80"/>
+      <c r="Y36" s="80"/>
+      <c r="Z36" s="44"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C37" s="30">
+      <c r="C37" s="29">
         <v>43952</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="21"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
-      <c r="O37" s="136"/>
-      <c r="P37" s="98"/>
-      <c r="Q37" s="119">
+      <c r="M37" s="174"/>
+      <c r="N37" s="174"/>
+      <c r="O37" s="174"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="117">
         <v>2958465</v>
       </c>
-      <c r="T37" s="84"/>
-      <c r="U37" s="84"/>
-      <c r="V37" s="81"/>
-      <c r="W37" s="81"/>
-      <c r="X37" s="81"/>
-      <c r="Y37" s="81"/>
-      <c r="Z37" s="45"/>
+      <c r="T37" s="83"/>
+      <c r="U37" s="83"/>
+      <c r="V37" s="80"/>
+      <c r="W37" s="80"/>
+      <c r="X37" s="80"/>
+      <c r="Y37" s="80"/>
+      <c r="Z37" s="44"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D38" s="126"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="47"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="46"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D39" s="126"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="47"/>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="46"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="44"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="37">
         <v>43952</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="49"/>
+      <c r="F41" s="48"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="29"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
@@ -5160,123 +5254,123 @@
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
-      <c r="Q41" s="120">
+      <c r="Q41" s="118">
         <v>2958465</v>
       </c>
-      <c r="U41" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
+      <c r="U41" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="44"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C42" s="22"/>
-      <c r="D42" s="129">
+      <c r="C42" s="21"/>
+      <c r="D42" s="160">
         <v>43983</v>
       </c>
-      <c r="E42" s="129"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="18"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="17"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5">
         <v>44196</v>
       </c>
-      <c r="L42" s="99" t="s">
-        <v>89</v>
-      </c>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="121"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45"/>
+      <c r="L42" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="119"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="44"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C43" s="30">
+      <c r="C43" s="29">
         <v>43952</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="21"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="20"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6">
         <v>44196</v>
       </c>
-      <c r="L43" s="22"/>
-      <c r="M43" s="133"/>
-      <c r="N43" s="133"/>
-      <c r="O43" s="133"/>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="121"/>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="45"/>
-      <c r="Z43" s="45"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="173"/>
+      <c r="N43" s="173"/>
+      <c r="O43" s="173"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="119"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D44" s="126"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="47"/>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="45"/>
-      <c r="Z44" s="45"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="46"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D45" s="126"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="47"/>
-      <c r="X45" s="45"/>
-      <c r="Y45" s="45"/>
-      <c r="Z45" s="45"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="46"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="130">
+      <c r="C46" s="30"/>
+      <c r="D46" s="176">
         <v>43983</v>
       </c>
-      <c r="E46" s="130"/>
-      <c r="F46" s="49"/>
+      <c r="E46" s="176"/>
+      <c r="F46" s="48"/>
       <c r="G46" s="11"/>
       <c r="H46" s="9">
         <v>44104</v>
       </c>
-      <c r="U46" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="X46" s="45"/>
-      <c r="Y46" s="45"/>
-      <c r="Z46" s="45"/>
+      <c r="U46" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C47" s="18">
+      <c r="C47" s="17">
         <v>43952</v>
       </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="18"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -5286,71 +5380,71 @@
       <c r="N47" s="5">
         <v>44286</v>
       </c>
-      <c r="O47" s="99" t="s">
-        <v>89</v>
-      </c>
-      <c r="P47" s="99"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="45"/>
+      <c r="O47" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" s="97"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C48" s="96">
+      <c r="C48" s="94">
         <v>43952</v>
       </c>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="21"/>
+      <c r="D48" s="177"/>
+      <c r="E48" s="177"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="20"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="40"/>
+      <c r="M48" s="39"/>
       <c r="N48" s="6">
         <v>44286</v>
       </c>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="X48" s="45"/>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D49" s="126"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="47"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="45"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="46"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="44"/>
+      <c r="Z49" s="44"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D50" s="126"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="47"/>
-      <c r="X50" s="45"/>
-      <c r="Y50" s="45"/>
-      <c r="Z50" s="45"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="46"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="95">
+      <c r="C51" s="93">
         <v>43952</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
-      <c r="F51" s="27"/>
+      <c r="F51" s="26"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -5363,23 +5457,23 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-      <c r="U51" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="W51" s="51"/>
-      <c r="X51" s="45"/>
-      <c r="Y51" s="45"/>
-      <c r="Z51" s="45"/>
+      <c r="U51" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="W51" s="50"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C52" s="4"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="143"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="165"/>
       <c r="F52" s="7"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="94">
+      <c r="H52" s="92">
         <v>44075</v>
       </c>
       <c r="I52" s="5"/>
@@ -5390,26 +5484,26 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
-      <c r="Q52" s="115">
+      <c r="Q52" s="113">
         <v>2958465</v>
       </c>
-      <c r="R52" s="122" t="s">
-        <v>89</v>
-      </c>
-      <c r="W52" s="51"/>
-      <c r="X52" s="45"/>
-      <c r="Y52" s="45"/>
-      <c r="Z52" s="45"/>
+      <c r="R52" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="W52" s="50"/>
+      <c r="X52" s="44"/>
+      <c r="Y52" s="44"/>
+      <c r="Z52" s="44"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C53" s="73">
+      <c r="C53" s="72">
         <v>43952</v>
       </c>
-      <c r="D53" s="75"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="28"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="27"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -5420,80 +5514,80 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
-      <c r="Q53" s="119">
+      <c r="Q53" s="117">
         <v>2958465</v>
       </c>
-      <c r="W53" s="52"/>
-      <c r="X53" s="45"/>
-      <c r="Y53" s="45"/>
-      <c r="Z53" s="45"/>
+      <c r="W53" s="51"/>
+      <c r="X53" s="44"/>
+      <c r="Y53" s="44"/>
+      <c r="Z53" s="44"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D54" s="144"/>
-      <c r="E54" s="145"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="51"/>
-      <c r="N54" s="51"/>
-      <c r="O54" s="51"/>
-      <c r="P54" s="51"/>
-      <c r="Q54" s="123"/>
-      <c r="R54" s="51"/>
-      <c r="S54" s="51"/>
-      <c r="V54" s="103"/>
-      <c r="W54" s="104"/>
+      <c r="D54" s="166"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="121"/>
+      <c r="R54" s="50"/>
+      <c r="S54" s="50"/>
+      <c r="V54" s="101"/>
+      <c r="W54" s="102"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D55" s="126"/>
-      <c r="E55" s="132"/>
-      <c r="F55" s="47"/>
-      <c r="V55" s="103"/>
-      <c r="W55" s="105"/>
-      <c r="X55" s="45"/>
-      <c r="Y55" s="45"/>
-      <c r="Z55" s="45"/>
+      <c r="D55" s="146"/>
+      <c r="E55" s="147"/>
+      <c r="F55" s="46"/>
+      <c r="V55" s="101"/>
+      <c r="W55" s="103"/>
+      <c r="X55" s="44"/>
+      <c r="Y55" s="44"/>
+      <c r="Z55" s="44"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="95">
+      <c r="B56" s="33"/>
+      <c r="C56" s="93">
         <v>43952</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
-      <c r="F56" s="56"/>
+      <c r="F56" s="55"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="72">
+      <c r="K56" s="71">
         <v>44196</v>
       </c>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="121"/>
-      <c r="U56" s="160" t="s">
-        <v>98</v>
-      </c>
-      <c r="V56" s="103"/>
-      <c r="W56" s="106"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="119"/>
+      <c r="U56" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="V56" s="101"/>
+      <c r="W56" s="104"/>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B57" s="18">
+      <c r="B57" s="17">
         <v>43922</v>
       </c>
       <c r="C57" s="5">
@@ -5501,167 +5595,172 @@
       </c>
       <c r="D57" s="149"/>
       <c r="E57" s="150"/>
-      <c r="F57" s="47"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="51"/>
-      <c r="O57" s="51"/>
-      <c r="P57" s="51"/>
-      <c r="R57" s="122" t="s">
-        <v>89</v>
-      </c>
-      <c r="S57" s="51"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="107"/>
-      <c r="X57" s="45"/>
-      <c r="Y57" s="45"/>
-      <c r="Z57" s="45"/>
+      <c r="F57" s="46"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="R57" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="S57" s="50"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="105"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="44"/>
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
     <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="87"/>
-      <c r="D58" s="67">
+      <c r="B58" s="101"/>
+      <c r="C58" s="128">
+        <v>43952</v>
+      </c>
+      <c r="D58" s="66">
         <v>44007</v>
       </c>
-      <c r="E58" s="109"/>
-      <c r="F58" s="89" t="s">
+      <c r="E58" s="107"/>
+      <c r="F58" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="N58" s="51"/>
-      <c r="W58" s="108"/>
-      <c r="X58" s="45"/>
-      <c r="Y58" s="45"/>
-      <c r="Z58" s="45"/>
+      <c r="N58" s="50"/>
+      <c r="W58" s="106"/>
+      <c r="X58" s="44"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="44"/>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="126"/>
-      <c r="E59" s="132"/>
-      <c r="F59" s="47"/>
-      <c r="W59" s="108"/>
-      <c r="X59" s="45"/>
-      <c r="Y59" s="45"/>
-      <c r="Z59" s="45"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="147"/>
+      <c r="F59" s="46"/>
+      <c r="W59" s="106"/>
+      <c r="X59" s="44"/>
+      <c r="Y59" s="44"/>
+      <c r="Z59" s="44"/>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
     </row>
     <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="100"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="47"/>
-      <c r="T60" s="102"/>
-      <c r="U60" s="102"/>
-      <c r="W60" s="108"/>
-      <c r="X60" s="102"/>
-      <c r="Y60" s="102"/>
-      <c r="Z60" s="102"/>
+      <c r="A60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="46"/>
+      <c r="T60" s="100"/>
+      <c r="U60" s="100"/>
+      <c r="W60" s="106"/>
+      <c r="X60" s="100"/>
+      <c r="Y60" s="100"/>
+      <c r="Z60" s="100"/>
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="34"/>
-      <c r="C61" s="95">
+      <c r="B61" s="33"/>
+      <c r="C61" s="93">
         <v>43952</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
-      <c r="F61" s="49"/>
+      <c r="F61" s="48"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="72">
+      <c r="K61" s="71">
         <v>44196</v>
       </c>
-      <c r="U61" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="W61" s="108"/>
-      <c r="X61" s="45"/>
-      <c r="Y61" s="45"/>
-      <c r="Z61" s="45"/>
+      <c r="U61" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="W61" s="106"/>
+      <c r="X61" s="44"/>
+      <c r="Y61" s="44"/>
+      <c r="Z61" s="44"/>
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
     <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="141">
+      <c r="B62" s="124">
+        <v>43922</v>
+      </c>
+      <c r="C62" s="170">
         <v>44007</v>
       </c>
-      <c r="D62" s="141"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="24" t="s">
+      <c r="D62" s="170"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="W62" s="53"/>
-      <c r="X62" s="45"/>
-      <c r="Y62" s="45"/>
-      <c r="Z62" s="45"/>
+      <c r="W62" s="52"/>
+      <c r="X62" s="44"/>
+      <c r="Y62" s="44"/>
+      <c r="Z62" s="44"/>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="34"/>
-      <c r="C63" s="73">
+      <c r="B63" s="33"/>
+      <c r="C63" s="72">
         <v>43952</v>
       </c>
       <c r="D63" s="6">
         <v>44007</v>
       </c>
-      <c r="E63" s="34"/>
-      <c r="F63" s="47"/>
-      <c r="W63" s="53"/>
-      <c r="X63" s="45"/>
-      <c r="Y63" s="45"/>
-      <c r="Z63" s="45"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="46"/>
+      <c r="W63" s="52"/>
+      <c r="X63" s="44"/>
+      <c r="Y63" s="44"/>
+      <c r="Z63" s="44"/>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
     </row>
     <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="138"/>
-      <c r="E64" s="139"/>
-      <c r="F64" s="47"/>
-      <c r="W64" s="53"/>
-      <c r="X64" s="45"/>
-      <c r="Y64" s="45"/>
-      <c r="Z64" s="45"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="151"/>
+      <c r="E64" s="152"/>
+      <c r="F64" s="46"/>
+      <c r="W64" s="52"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="44"/>
+      <c r="Z64" s="44"/>
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="138"/>
-      <c r="E65" s="139"/>
-      <c r="F65" s="47"/>
-      <c r="W65" s="53"/>
-      <c r="X65" s="45"/>
-      <c r="Y65" s="45"/>
-      <c r="Z65" s="45"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="151"/>
+      <c r="E65" s="152"/>
+      <c r="F65" s="46"/>
+      <c r="W65" s="52"/>
+      <c r="X65" s="44"/>
+      <c r="Y65" s="44"/>
+      <c r="Z65" s="44"/>
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
     </row>
     <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="38">
+      <c r="C66" s="37">
         <v>43952</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="27"/>
+      <c r="F66" s="26"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="72" t="s">
+      <c r="I66" s="71" t="s">
         <v>57</v>
       </c>
       <c r="J66" s="4" t="s">
@@ -5673,24 +5772,24 @@
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
-      <c r="R66" s="51"/>
-      <c r="W66" s="53"/>
-      <c r="X66" s="45"/>
-      <c r="Y66" s="45"/>
-      <c r="Z66" s="45"/>
+      <c r="R66" s="50"/>
+      <c r="W66" s="52"/>
+      <c r="X66" s="44"/>
+      <c r="Y66" s="44"/>
+      <c r="Z66" s="44"/>
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="4"/>
-      <c r="D67" s="128"/>
-      <c r="E67" s="143"/>
+      <c r="D67" s="164"/>
+      <c r="E67" s="165"/>
       <c r="F67" s="7"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="18">
+      <c r="K67" s="17">
         <v>44166</v>
       </c>
       <c r="L67" s="5"/>
@@ -5698,29 +5797,29 @@
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
-      <c r="Q67" s="115">
+      <c r="Q67" s="113">
         <v>2958465</v>
       </c>
-      <c r="R67" s="99" t="s">
-        <v>89</v>
-      </c>
-      <c r="U67" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="W67" s="53"/>
-      <c r="X67" s="45"/>
-      <c r="Y67" s="45"/>
-      <c r="Z67" s="45"/>
+      <c r="R67" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="U67" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="W67" s="52"/>
+      <c r="X67" s="44"/>
+      <c r="Y67" s="44"/>
+      <c r="Z67" s="44"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
     </row>
     <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="73">
+      <c r="C68" s="72">
         <v>43952</v>
       </c>
-      <c r="D68" s="74"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="28"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="27"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
@@ -5731,470 +5830,470 @@
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
-      <c r="Q68" s="119">
+      <c r="Q68" s="117">
         <v>2958465</v>
       </c>
-      <c r="R68" s="51"/>
-      <c r="W68" s="53"/>
-      <c r="X68" s="45"/>
-      <c r="Y68" s="45"/>
-      <c r="Z68" s="45"/>
+      <c r="R68" s="50"/>
+      <c r="W68" s="52"/>
+      <c r="X68" s="44"/>
+      <c r="Y68" s="44"/>
+      <c r="Z68" s="44"/>
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="138"/>
-      <c r="E69" s="139"/>
-      <c r="F69" s="47"/>
-      <c r="W69" s="53"/>
-      <c r="X69" s="45"/>
-      <c r="Y69" s="45"/>
-      <c r="Z69" s="45"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="151"/>
+      <c r="E69" s="152"/>
+      <c r="F69" s="46"/>
+      <c r="W69" s="52"/>
+      <c r="X69" s="44"/>
+      <c r="Y69" s="44"/>
+      <c r="Z69" s="44"/>
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
     </row>
     <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="138"/>
-      <c r="E70" s="139"/>
-      <c r="F70" s="47"/>
-      <c r="W70" s="53"/>
-      <c r="X70" s="45"/>
-      <c r="Y70" s="45"/>
-      <c r="Z70" s="45"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="151"/>
+      <c r="E70" s="152"/>
+      <c r="F70" s="46"/>
+      <c r="W70" s="52"/>
+      <c r="X70" s="44"/>
+      <c r="Y70" s="44"/>
+      <c r="Z70" s="44"/>
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="34"/>
-      <c r="C71" s="38">
+      <c r="B71" s="33"/>
+      <c r="C71" s="37">
         <v>43952</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="11"/>
-      <c r="F71" s="49"/>
+      <c r="F71" s="48"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
-      <c r="I71" s="72" t="s">
+      <c r="I71" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="W71" s="53"/>
-      <c r="X71" s="45"/>
-      <c r="Y71" s="45"/>
-      <c r="Z71" s="45"/>
+      <c r="W71" s="52"/>
+      <c r="X71" s="44"/>
+      <c r="Y71" s="44"/>
+      <c r="Z71" s="44"/>
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C72" s="4"/>
-      <c r="D72" s="128"/>
-      <c r="E72" s="143"/>
+      <c r="D72" s="164"/>
+      <c r="E72" s="165"/>
       <c r="F72" s="7"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="128" t="s">
+      <c r="J72" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="K72" s="128"/>
-      <c r="L72" s="18">
+      <c r="K72" s="164"/>
+      <c r="L72" s="17">
         <v>44197</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
-      <c r="Q72" s="115">
+      <c r="Q72" s="113">
         <v>2958465</v>
       </c>
-      <c r="R72" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="S72" s="51"/>
-      <c r="U72" s="79" t="s">
-        <v>88</v>
+      <c r="R72" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="S72" s="50"/>
+      <c r="U72" s="78" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C73" s="73">
+      <c r="C73" s="72">
         <v>43952</v>
       </c>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="76" t="s">
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="75" t="s">
         <v>57</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="82"/>
-      <c r="M73" s="83"/>
-      <c r="N73" s="83"/>
-      <c r="O73" s="83"/>
-      <c r="P73" s="83"/>
-      <c r="Q73" s="124"/>
-      <c r="R73" s="51"/>
-      <c r="S73" s="51"/>
-      <c r="W73" s="52"/>
-      <c r="X73" s="45"/>
-      <c r="Y73" s="45"/>
-      <c r="Z73" s="45"/>
+      <c r="L73" s="81"/>
+      <c r="M73" s="82"/>
+      <c r="N73" s="82"/>
+      <c r="O73" s="82"/>
+      <c r="P73" s="82"/>
+      <c r="Q73" s="122"/>
+      <c r="R73" s="50"/>
+      <c r="S73" s="50"/>
+      <c r="W73" s="51"/>
+      <c r="X73" s="44"/>
+      <c r="Y73" s="44"/>
+      <c r="Z73" s="44"/>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D74" s="144"/>
-      <c r="E74" s="145"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="51"/>
-      <c r="O74" s="51"/>
-      <c r="P74" s="51"/>
-      <c r="Q74" s="123"/>
-      <c r="R74" s="51"/>
-      <c r="S74" s="51"/>
+      <c r="D74" s="166"/>
+      <c r="E74" s="167"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="50"/>
+      <c r="O74" s="50"/>
+      <c r="P74" s="50"/>
+      <c r="Q74" s="121"/>
+      <c r="R74" s="50"/>
+      <c r="S74" s="50"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D75" s="144"/>
-      <c r="E75" s="145"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="55"/>
-      <c r="M75" s="55"/>
-      <c r="N75" s="51"/>
-      <c r="O75" s="51"/>
-      <c r="P75" s="51"/>
-      <c r="Q75" s="123"/>
-      <c r="R75" s="51"/>
-      <c r="S75" s="51"/>
+      <c r="D75" s="166"/>
+      <c r="E75" s="167"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="121"/>
+      <c r="R75" s="50"/>
+      <c r="S75" s="50"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="41">
+      <c r="A76" s="40">
         <v>5</v>
       </c>
-      <c r="B76" s="134" t="s">
+      <c r="B76" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C76" s="134"/>
-      <c r="D76" s="134"/>
-      <c r="E76" s="134"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
+      <c r="C76" s="163"/>
+      <c r="D76" s="163"/>
+      <c r="E76" s="163"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D77" s="38">
+      <c r="D77" s="37">
         <v>43983</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
       <c r="I77" s="148" t="s">
         <v>0</v>
       </c>
       <c r="J77" s="148"/>
       <c r="K77" s="148"/>
       <c r="L77" s="148"/>
-      <c r="M77" s="71"/>
-      <c r="N77" s="71"/>
-      <c r="O77" s="71"/>
-      <c r="P77" s="71"/>
-      <c r="Q77" s="120">
+      <c r="M77" s="70"/>
+      <c r="N77" s="70"/>
+      <c r="O77" s="70"/>
+      <c r="P77" s="70"/>
+      <c r="Q77" s="118">
         <v>2958465</v>
       </c>
-      <c r="R77" s="45"/>
-      <c r="S77" s="45"/>
-      <c r="U77" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="W77" s="51"/>
-      <c r="X77" s="45"/>
-      <c r="Y77" s="45"/>
-      <c r="Z77" s="45"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="44"/>
+      <c r="U77" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="W77" s="50"/>
+      <c r="X77" s="44"/>
+      <c r="Y77" s="44"/>
+      <c r="Z77" s="44"/>
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D78" s="126"/>
-      <c r="E78" s="132"/>
-      <c r="F78" s="47"/>
-      <c r="K78" s="66">
+      <c r="D78" s="146"/>
+      <c r="E78" s="147"/>
+      <c r="F78" s="46"/>
+      <c r="K78" s="65">
         <v>44166</v>
       </c>
-      <c r="L78" s="70"/>
-      <c r="M78" s="154" t="s">
+      <c r="L78" s="69"/>
+      <c r="M78" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="N78" s="154"/>
-      <c r="O78" s="70"/>
-      <c r="P78" s="70"/>
-      <c r="Q78" s="115">
+      <c r="N78" s="157"/>
+      <c r="O78" s="69"/>
+      <c r="P78" s="69"/>
+      <c r="Q78" s="113">
         <v>2958465</v>
       </c>
-      <c r="R78" s="57"/>
-      <c r="S78" s="57"/>
-      <c r="T78" s="57"/>
-      <c r="U78" s="57"/>
+      <c r="R78" s="56"/>
+      <c r="S78" s="56"/>
+      <c r="T78" s="56"/>
+      <c r="U78" s="56"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D79" s="30">
+      <c r="D79" s="29">
         <v>43983</v>
       </c>
       <c r="E79" s="8"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="140" t="s">
+      <c r="F79" s="60"/>
+      <c r="G79" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="H79" s="140"/>
+      <c r="H79" s="156"/>
       <c r="I79" s="8"/>
       <c r="J79" s="6">
         <v>44165</v>
       </c>
-      <c r="W79" s="52"/>
-      <c r="X79" s="45"/>
-      <c r="Y79" s="45"/>
-      <c r="Z79" s="45"/>
+      <c r="W79" s="51"/>
+      <c r="X79" s="44"/>
+      <c r="Y79" s="44"/>
+      <c r="Z79" s="44"/>
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D80" s="126"/>
-      <c r="E80" s="132"/>
-      <c r="F80" s="47"/>
+      <c r="D80" s="146"/>
+      <c r="E80" s="147"/>
+      <c r="F80" s="46"/>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D81" s="126"/>
-      <c r="E81" s="132"/>
-      <c r="F81" s="47"/>
+      <c r="D81" s="146"/>
+      <c r="E81" s="147"/>
+      <c r="F81" s="46"/>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C82" s="4"/>
-      <c r="D82" s="38">
+      <c r="D82" s="37">
         <v>43983</v>
       </c>
       <c r="E82" s="9"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="155" t="s">
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="J82" s="155"/>
-      <c r="K82" s="155"/>
-      <c r="L82" s="63"/>
-      <c r="M82" s="63"/>
-      <c r="N82" s="63"/>
-      <c r="O82" s="63"/>
-      <c r="P82" s="63"/>
-      <c r="Q82" s="120">
+      <c r="J82" s="158"/>
+      <c r="K82" s="158"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="62"/>
+      <c r="O82" s="62"/>
+      <c r="P82" s="62"/>
+      <c r="Q82" s="118">
         <v>2958465</v>
       </c>
-      <c r="R82" s="45"/>
-      <c r="S82" s="45"/>
-      <c r="U82" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="W82" s="51"/>
-      <c r="X82" s="45"/>
-      <c r="Y82" s="45"/>
-      <c r="Z82" s="45"/>
+      <c r="R82" s="44"/>
+      <c r="S82" s="44"/>
+      <c r="U82" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="W82" s="50"/>
+      <c r="X82" s="44"/>
+      <c r="Y82" s="44"/>
+      <c r="Z82" s="44"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C83" s="4"/>
-      <c r="D83" s="126"/>
-      <c r="E83" s="132"/>
+      <c r="D83" s="146"/>
+      <c r="E83" s="147"/>
       <c r="F83" s="7"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="66">
+      <c r="I83" s="65">
         <v>44105</v>
       </c>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="151" t="s">
+      <c r="J83" s="64"/>
+      <c r="K83" s="64"/>
+      <c r="L83" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="M83" s="151"/>
-      <c r="N83" s="65"/>
-      <c r="O83" s="65"/>
-      <c r="P83" s="65"/>
-      <c r="Q83" s="115">
+      <c r="M83" s="153"/>
+      <c r="N83" s="64"/>
+      <c r="O83" s="64"/>
+      <c r="P83" s="64"/>
+      <c r="Q83" s="113">
         <v>2958465</v>
       </c>
-      <c r="R83" s="57"/>
-      <c r="S83" s="57"/>
-      <c r="T83" s="57"/>
-      <c r="U83" s="57"/>
+      <c r="R83" s="56"/>
+      <c r="S83" s="56"/>
+      <c r="T83" s="56"/>
+      <c r="U83" s="56"/>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C84" s="4"/>
-      <c r="D84" s="30">
+      <c r="D84" s="29">
         <v>43983</v>
       </c>
       <c r="E84" s="6"/>
-      <c r="F84" s="153" t="s">
+      <c r="F84" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="G84" s="153"/>
-      <c r="H84" s="69">
+      <c r="G84" s="155"/>
+      <c r="H84" s="68">
         <v>44104</v>
       </c>
-      <c r="I84" s="68">
+      <c r="I84" s="67">
         <v>44105</v>
       </c>
-      <c r="J84" s="67"/>
-      <c r="K84" s="152" t="s">
+      <c r="J84" s="66"/>
+      <c r="K84" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="L84" s="152"/>
-      <c r="M84" s="152"/>
-      <c r="N84" s="152"/>
-      <c r="O84" s="67"/>
-      <c r="P84" s="67"/>
-      <c r="Q84" s="125">
+      <c r="L84" s="154"/>
+      <c r="M84" s="154"/>
+      <c r="N84" s="154"/>
+      <c r="O84" s="66"/>
+      <c r="P84" s="66"/>
+      <c r="Q84" s="123">
         <v>2958465</v>
       </c>
-      <c r="R84" s="45"/>
-      <c r="S84" s="45"/>
-      <c r="W84" s="52"/>
-      <c r="X84" s="45"/>
-      <c r="Y84" s="45"/>
-      <c r="Z84" s="45"/>
+      <c r="R84" s="44"/>
+      <c r="S84" s="44"/>
+      <c r="W84" s="51"/>
+      <c r="X84" s="44"/>
+      <c r="Y84" s="44"/>
+      <c r="Z84" s="44"/>
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D85" s="126"/>
-      <c r="E85" s="132"/>
-      <c r="F85" s="47"/>
+      <c r="D85" s="146"/>
+      <c r="E85" s="147"/>
+      <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="126"/>
-      <c r="E86" s="132"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="34"/>
-      <c r="M86" s="34"/>
-      <c r="N86" s="34"/>
-      <c r="O86" s="34"/>
-      <c r="P86" s="34"/>
-      <c r="Q86" s="121"/>
-      <c r="R86" s="34"/>
-      <c r="S86" s="34"/>
-      <c r="T86" s="79"/>
-      <c r="U86" s="79"/>
-      <c r="V86" s="34"/>
-      <c r="W86" s="53"/>
-      <c r="X86" s="45"/>
-      <c r="Y86" s="45"/>
-      <c r="Z86" s="45"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="146"/>
+      <c r="E86" s="147"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="33"/>
+      <c r="P86" s="33"/>
+      <c r="Q86" s="119"/>
+      <c r="R86" s="33"/>
+      <c r="S86" s="33"/>
+      <c r="T86" s="78"/>
+      <c r="U86" s="78"/>
+      <c r="V86" s="33"/>
+      <c r="W86" s="52"/>
+      <c r="X86" s="44"/>
+      <c r="Y86" s="44"/>
+      <c r="Z86" s="44"/>
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
     </row>
     <row r="87" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="45">
+      <c r="A87" s="44">
         <v>6</v>
       </c>
-      <c r="B87" s="146" t="s">
+      <c r="B87" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="C87" s="146"/>
-      <c r="D87" s="146"/>
-      <c r="E87" s="147"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
-      <c r="O87" s="34"/>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="121"/>
-      <c r="R87" s="34"/>
-      <c r="S87" s="34"/>
-      <c r="T87" s="79"/>
-      <c r="U87" s="79"/>
-      <c r="V87" s="34"/>
-      <c r="W87" s="53"/>
-      <c r="X87" s="45"/>
-      <c r="Y87" s="45"/>
-      <c r="Z87" s="45"/>
+      <c r="C87" s="168"/>
+      <c r="D87" s="168"/>
+      <c r="E87" s="169"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="33"/>
+      <c r="Q87" s="119"/>
+      <c r="R87" s="33"/>
+      <c r="S87" s="33"/>
+      <c r="T87" s="78"/>
+      <c r="U87" s="78"/>
+      <c r="V87" s="33"/>
+      <c r="W87" s="52"/>
+      <c r="X87" s="44"/>
+      <c r="Y87" s="44"/>
+      <c r="Z87" s="44"/>
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C88" s="4"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="132"/>
+      <c r="D88" s="146"/>
+      <c r="E88" s="147"/>
       <c r="F88" s="7"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="38">
+      <c r="L88" s="37">
         <v>44197</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
       <c r="P88" s="9"/>
-      <c r="Q88" s="120">
+      <c r="Q88" s="118">
         <v>2958465</v>
       </c>
       <c r="R88" s="10"/>
-      <c r="U88" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="W88" s="51"/>
-      <c r="X88" s="45"/>
-      <c r="Y88" s="45"/>
-      <c r="Z88" s="45"/>
+      <c r="U88" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="W88" s="50"/>
+      <c r="X88" s="44"/>
+      <c r="Y88" s="44"/>
+      <c r="Z88" s="44"/>
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C89" s="4"/>
-      <c r="D89" s="126"/>
-      <c r="E89" s="126"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="18">
+      <c r="D89" s="146"/>
+      <c r="E89" s="146"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="17">
         <v>44044</v>
       </c>
       <c r="H89" s="5"/>
@@ -6209,14 +6308,14 @@
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
       <c r="R89" s="10"/>
-      <c r="W89" s="51"/>
+      <c r="W89" s="50"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C90" s="4"/>
-      <c r="D90" s="126"/>
-      <c r="E90" s="156"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="30">
+      <c r="D90" s="146"/>
+      <c r="E90" s="159"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="29">
         <v>44044</v>
       </c>
       <c r="H90" s="6"/>
@@ -6231,17 +6330,17 @@
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="R90" s="10"/>
-      <c r="W90" s="52"/>
-      <c r="X90" s="45"/>
-      <c r="Y90" s="45"/>
-      <c r="Z90" s="45"/>
+      <c r="W90" s="51"/>
+      <c r="X90" s="44"/>
+      <c r="Y90" s="44"/>
+      <c r="Z90" s="44"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C91" s="4"/>
-      <c r="D91" s="126"/>
-      <c r="E91" s="132"/>
+      <c r="D91" s="146"/>
+      <c r="E91" s="147"/>
       <c r="F91" s="7"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -6254,52 +6353,52 @@
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
       <c r="R91" s="10"/>
-      <c r="X91" s="45"/>
-      <c r="Y91" s="45"/>
-      <c r="Z91" s="45"/>
+      <c r="X91" s="44"/>
+      <c r="Y91" s="44"/>
+      <c r="Z91" s="44"/>
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D92" s="126"/>
-      <c r="E92" s="132"/>
-      <c r="F92" s="47"/>
+      <c r="D92" s="146"/>
+      <c r="E92" s="147"/>
+      <c r="F92" s="46"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="41" t="s">
+      <c r="A93" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D93" s="126"/>
-      <c r="E93" s="132"/>
+      <c r="D93" s="146"/>
+      <c r="E93" s="147"/>
       <c r="F93" s="7"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="38">
+      <c r="L93" s="37">
         <v>44197</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
-      <c r="Q93" s="120">
+      <c r="Q93" s="118">
         <v>2958465</v>
       </c>
-      <c r="R93" s="159" t="s">
-        <v>96</v>
-      </c>
-      <c r="U93" s="79" t="s">
-        <v>88</v>
+      <c r="R93" s="126" t="s">
+        <v>83</v>
+      </c>
+      <c r="U93" s="78" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D94" s="129">
+      <c r="D94" s="160">
         <v>43983</v>
       </c>
-      <c r="E94" s="157"/>
-      <c r="F94" s="25"/>
+      <c r="E94" s="161"/>
+      <c r="F94" s="24"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
@@ -6312,23 +6411,23 @@
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
-      <c r="R94" s="34" t="s">
-        <v>97</v>
+      <c r="R94" s="33" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D95" s="137">
+      <c r="D95" s="162">
         <v>43983</v>
       </c>
-      <c r="E95" s="137"/>
-      <c r="F95" s="13"/>
+      <c r="E95" s="162"/>
+      <c r="F95" s="125"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6">
         <v>44165</v>
       </c>
-      <c r="K95" s="88" t="s">
+      <c r="K95" s="86" t="s">
         <v>66</v>
       </c>
       <c r="L95" s="4"/>
@@ -6338,68 +6437,147 @@
       <c r="P95" s="4"/>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D96" s="126"/>
-      <c r="E96" s="132"/>
-      <c r="F96" s="47"/>
+      <c r="D96" s="146"/>
+      <c r="E96" s="147"/>
+      <c r="F96" s="46"/>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D97" s="126"/>
-      <c r="E97" s="126"/>
+      <c r="D97" s="146"/>
+      <c r="E97" s="146"/>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D98" s="126"/>
-      <c r="E98" s="126"/>
+      <c r="D98" s="146"/>
+      <c r="E98" s="146"/>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D99" s="126"/>
-      <c r="E99" s="126"/>
+      <c r="D99" s="146"/>
+      <c r="E99" s="146"/>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D100" s="126"/>
-      <c r="E100" s="126"/>
+      <c r="D100" s="146"/>
+      <c r="E100" s="146"/>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D101" s="126"/>
-      <c r="E101" s="126"/>
+      <c r="D101" s="146"/>
+      <c r="E101" s="146"/>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D102" s="126"/>
-      <c r="E102" s="126"/>
+      <c r="D102" s="146"/>
+      <c r="E102" s="146"/>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D103" s="126"/>
-      <c r="E103" s="126"/>
+      <c r="D103" s="146"/>
+      <c r="E103" s="146"/>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D104" s="126"/>
-      <c r="E104" s="126"/>
+      <c r="D104" s="146"/>
+      <c r="E104" s="146"/>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D105" s="126"/>
-      <c r="E105" s="126"/>
+      <c r="D105" s="146"/>
+      <c r="E105" s="146"/>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D106" s="126"/>
-      <c r="E106" s="126"/>
+      <c r="D106" s="146"/>
+      <c r="E106" s="146"/>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D107" s="126"/>
-      <c r="E107" s="126"/>
+      <c r="D107" s="146"/>
+      <c r="E107" s="146"/>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D108" s="126"/>
-      <c r="E108" s="126"/>
+      <c r="D108" s="146"/>
+      <c r="E108" s="146"/>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D109" s="126"/>
-      <c r="E109" s="126"/>
+      <c r="D109" s="146"/>
+      <c r="E109" s="146"/>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D110" s="126"/>
-      <c r="E110" s="126"/>
+      <c r="D110" s="146"/>
+      <c r="E110" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
     <mergeCell ref="D108:E108"/>
     <mergeCell ref="D109:E109"/>
     <mergeCell ref="D110:E110"/>
@@ -6416,85 +6594,6 @@
     <mergeCell ref="D102:E102"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="D83:E83"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="I82:K82"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6525,145 +6624,145 @@
     <col min="8" max="20" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:20" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="178"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6681,367 +6780,397 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33CF594-D631-49AB-8886-0C9260E8F053}">
-  <dimension ref="D2:N27"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="B1:O29"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="91"/>
-    <col min="6" max="6" width="10.140625" style="91" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="91" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="91" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="91" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="91"/>
-    <col min="11" max="11" width="10.5703125" style="91" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="91" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="91" customWidth="1"/>
-    <col min="14" max="14" width="12" style="91" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="91" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="91"/>
+    <col min="1" max="1" width="25" style="132" customWidth="1"/>
+    <col min="2" max="2" width="20" style="132" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="132" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="132" customWidth="1"/>
+    <col min="5" max="5" width="11" style="132" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="132" customWidth="1"/>
+    <col min="7" max="7" width="11" style="132" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="89" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="89" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="89" customWidth="1"/>
+    <col min="11" max="11" width="12" style="89" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="89" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="89"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D2" s="91" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="179" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="D2" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="92">
+      <c r="E2" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="131" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="131" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="133" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="133" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="133" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="134">
+        <v>43983</v>
+      </c>
+      <c r="G3" s="134">
+        <v>2958465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F4" s="135"/>
+    </row>
+    <row r="5" spans="1:10" s="129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="138" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="140" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="141" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="133" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="143">
+        <v>43983</v>
+      </c>
+      <c r="D7" s="142" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="138" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="139" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="141" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="133" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="144">
         <v>43952</v>
       </c>
-    </row>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H3" s="91" t="s">
+      <c r="D10" s="142" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="90"/>
+    </row>
+    <row r="12" spans="1:10" s="129" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="140" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="143">
+        <v>43983</v>
+      </c>
+      <c r="D13" s="142" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="135"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="130" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="131" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="143">
+        <v>43983</v>
+      </c>
+      <c r="E16" s="143">
+        <v>2958465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="179" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="179"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="J19" s="90"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="91" t="s">
+      <c r="C20" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="F20" s="145" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="145" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="C21" s="133" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="91" t="s">
+      <c r="E21" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="91" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H4" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="92">
+      <c r="F21" s="143">
+        <v>43983</v>
+      </c>
+      <c r="G21" s="143">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="140" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="141" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="133" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="143">
+        <v>43983</v>
+      </c>
+      <c r="D24" s="143">
+        <v>44043</v>
+      </c>
+      <c r="F24" s="132" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D25" s="135"/>
+    </row>
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="138" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="139" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="140" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="141" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="133" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="144">
         <v>43952</v>
       </c>
-    </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="F5" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="92">
-        <v>44013</v>
-      </c>
-    </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I6" s="91" t="s">
+      <c r="D27" s="143">
+        <v>44043</v>
+      </c>
+      <c r="J27" s="90"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D28" s="135"/>
+    </row>
+    <row r="29" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="140" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="143">
+        <v>43983</v>
+      </c>
+      <c r="D30" s="143">
+        <v>44043</v>
+      </c>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="130" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" s="91" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="I7" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="92">
-        <v>44013</v>
-      </c>
-      <c r="M7" s="92">
-        <v>44347</v>
-      </c>
-    </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="F9" s="91" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H10" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="91" t="s">
+      <c r="D32" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="131" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="91" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H11" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" s="92">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D14" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="92">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H15" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="91" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" s="92">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="F17" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="92">
-        <v>44013</v>
-      </c>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H18" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="K18" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="91" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H19" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="92">
-        <v>43922</v>
-      </c>
-      <c r="L19" s="92">
-        <v>43982</v>
-      </c>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D21" s="91" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="F22" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="92">
+      <c r="D33" s="143">
         <v>43983</v>
       </c>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H23" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="M23" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="91" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H24" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="K24" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="M24" s="92">
-        <v>43983</v>
-      </c>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="F25" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="92">
-        <v>44013</v>
-      </c>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H26" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="K26" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="L26" s="91" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="H27" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27" s="92">
-        <v>44013</v>
-      </c>
-      <c r="L27" s="92">
-        <v>44165</v>
+      <c r="E33" s="144">
+        <v>44044</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A19:G19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <headerFooter>
@@ -7051,21 +7180,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100105AA83FBAA291448762816751F79538" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98d04f14d923008eb354a1323fe410d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="eb64471f-f124-4427-8065-1a725aacdba4" xmlns:ns4="7f633b02-3a5b-412a-8e43-c6eecedb73ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="966b2cdb6ab7e3d265073c5aba9a8a26" ns3:_="" ns4:_="">
     <xsd:import namespace="eb64471f-f124-4427-8065-1a725aacdba4"/>
@@ -7250,10 +7364,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F3FC176-AA22-4B73-87AC-F9BFD6649A24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3295B96-8EC3-4607-9850-EE26E50B9C5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="eb64471f-f124-4427-8065-1a725aacdba4"/>
+    <ds:schemaRef ds:uri="7f633b02-3a5b-412a-8e43-c6eecedb73ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7276,20 +7416,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3295B96-8EC3-4607-9850-EE26E50B9C5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F3FC176-AA22-4B73-87AC-F9BFD6649A24}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="eb64471f-f124-4427-8065-1a725aacdba4"/>
-    <ds:schemaRef ds:uri="7f633b02-3a5b-412a-8e43-c6eecedb73ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>